--- a/formated_outputs/execution_log/crossdisc/qwen/qwen-深海探测.xlsx
+++ b/formated_outputs/execution_log/crossdisc/qwen/qwen-深海探测.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
   <si>
     <t>task_name</t>
   </si>
@@ -51,6 +51,10 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">物理学教授
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">化学教授
 </t>
   </si>
@@ -59,14 +63,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">数学教授
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">物理学教授
-</t>
-  </si>
-  <si>
     <t>根据用户提出的问题：深海探测，提炼出其中核心的3-5个子问题。每个子问题应明确、具体，并适合由不同学科专家进行深入分析，子问题之间具备关联性，总共构成解决整个大问题的基础。</t>
   </si>
   <si>
@@ -74,41 +70,26 @@
 </t>
   </si>
   <si>
-    <t>深海地形与地质结构的探测与分析</t>
-  </si>
-  <si>
-    <t>深海生态系统与生物多样性调查</t>
-  </si>
-  <si>
-    <t>深海化学环境及其对生物的影响</t>
-  </si>
-  <si>
-    <t>深海资源开发的环境影响评估</t>
-  </si>
-  <si>
-    <t>深海探测技术的发展与应用</t>
+    <t>从生物学的角度出发，探讨深海生物的种类、分布及其与深海环境之间的相互作用。研究深海生物如何适应极端环境，以及这些生物在深海生态系统中的作用。</t>
+  </si>
+  <si>
+    <t>从物理学和地质学的角度，分析深海的物理环境特征，如压力、温度、洋流等，并探讨这些条件如何随时间变化，以及它们对深海生态系统的影响。</t>
+  </si>
+  <si>
+    <t>从化学的角度，研究深海中的化学成分，包括水体中的微量元素、溶解气体等，以及深海热液喷口等特殊环境的化学特征，探讨这些化学因素如何影响深海生物和生态系统的健康与稳定。</t>
+  </si>
+  <si>
+    <t>从地理学和环境科学的角度，讨论深海资源（如矿物、生物资源）的勘探与开采，包括相关技术、经济可行性和环境影响评估，探讨如何在资源开发的同时保护深海环境免受破坏。</t>
+  </si>
+  <si>
+    <t>从技术科学的角度，分析当前深海探测技术的发展水平，包括遥控潜水器、自主水下机器人等，探讨未来技术进步可能带来的深海探测新机遇。</t>
   </si>
   <si>
     <t xml:space="preserve">请不同的学科专家，基于所在学科的专业知识，选择高度相关的多个子问题，进行全面深入的分析和解决，用中文回答。 给出的解决方案应足够专业，尽量具体、具备逻辑性。要求每个学科专家都进行回答，并且所有专家回答的问题集合能覆盖所有子问题。 当前主问题为：深海探测
 </t>
   </si>
   <si>
-    <t>从数学的角度，如何建立深海探测的数学模型，以预测深海地形、生物分布和化学环境的变化？</t>
-  </si>
-  <si>
-    <t>从物理学的角度，如何利用声纳技术和遥感技术进行深海探测，特别是在地形测绘和生物分布监测方面的应用？</t>
-  </si>
-  <si>
-    <t>从生物学的角度，如何研究深海生态系统的生物多样性和生态适应机制，以及这些研究如何为深海保护提供科学依据？</t>
-  </si>
-  <si>
-    <t>从化学的角度，如何研究深海化学环境及其对生物的影响，以及人类活动对这一环境的潜在影响？</t>
-  </si>
-  <si>
-    <t>从地理学的角度，如何进行深海地形与地质结构的探测与分析，以及深海资源开发的环境影响评估？</t>
-  </si>
-  <si>
-    <t>从人工智能的角度，如何发展和应用深海探测技术，特别是在无人潜水器、自主水下航行器、环境监测与管理等方面的应用？</t>
+    <t>从生物学的角度分析深海生物的种类、分布及其与深海环境之间的相互作用，研究深海生物如何适应极端环境，以及这些生物在深海生态系统中的作用。</t>
   </si>
   <si>
     <t xml:space="preserve">请不同的学科专家，基于所在学科的专业知识，选择相关的多个子问题，从辅助学科的角度补充该子任务的解决方法，提供新的思维方式、潜在联系，用中文回答。 回答应突出你学科的独特贡献以及与已知视角之间的互补关系。 当前主问题为：深海探测
@@ -122,330 +103,327 @@
 </t>
   </si>
   <si>
-    <t>关于深海探测的核心子问题，可以提炼出以下几点，每个子问题都具有特定的学科背景，同时它们之间又互相联系，共同构成了对深海探测这一复杂问题的全面研究：
-1. **深海地形与地质结构的探测与分析**：此问题需要地理学、地质学专家参与，通过利用声纳、遥感等技术手段，对深海海底的地形地貌进行精确测量与分析，了解海底山脉、海沟、平顶山等地质结构，以及这些结构对海洋环境的影响。
-2. **深海生态系统与生物多样性调查**：生物学家需要深入研究深海环境中的生物种类分布、生态链结构及生物多样性，探讨极端环境下生物适应机制，包括深海生物的生存策略、能量获取方式等，以评估人类活动对深海生态系统可能产生的影响。
-3. **深海化学环境及其对生物的影响**：化学家应关注深海区域的化学组成，如温跃层、热液喷口等特殊环境中的化学物质组成，以及这些化学物质如何影响深海生物的生理与行为。此外，还需研究深海矿产资源开发可能引起的化学污染问题。
-4. **深海资源开发的环境影响评估**：环境科学家需评估深海矿产资源（如锰结核、热液硫化物等）的开采对深海生态系统、水体质量等可能造成的长期与短期影响，提出减少负面影响的策略和技术措施。
-5. **深海探测技术的发展与应用**：技术专家应关注深海探测技术的进步，包括无人潜水器、深海机器人等设备的研发与应用，以及如何提高这些技术在深海环境下的可靠性和效率，同时确保对环境的最小化干扰。
-这些子问题不仅涵盖了深海探测领域的不同方面，而且每个问题间存在着紧密的联系，共同构成了对深海探测这一多学科交叉领域的深入认识。</t>
-  </si>
-  <si>
-    <t>对于深海地形与地质结构的探测与分析，这是一个多学科交叉的综合研究任务，涉及到地理学、地质学等多个领域。本项目旨在利用先进的声纳技术和遥感技术，对深海海底的地形地貌进行详细的测量与分析。通过这些技术手段，我们能够获取高分辨率的海底地形数据，包括海底山脉、海沟、平顶山等地质结构的具体形态和分布特征。
-在项目实施过程中，我们将重点研究这些地质结构对海洋环境的影响，例如它们如何影响洋流路径、海洋生物的分布、沉积物的运输和沉积过程等。此外，我们还将探索这些地质结构与全球变化之间的关系，以及它们在地球系统中的作用。
-为了确保项目的顺利进行，我们将与地质学、海洋生物学、化学及地球物理学等领域的专家紧密合作，共同完成数据的收集、处理和分析工作。通过本项目的实施，我们预期能够深化对海洋地质结构及其环境效应的认识，为保护海洋环境、合理利用海洋资源提供科学依据。同时，该项目还将促进相关科学技术的发展，为未来的深海探测和研究奠定基础。</t>
-  </si>
-  <si>
-    <t>深海生态系统是地球上最神秘也是最末被充分探索的区域之一。这些环境通常位于海平面以下200米，一直延伸到深达11000米的马里亚纳海沟。深海环境的特征包括极端的压力、低温、完全的黑暗以及食物资源的极度稀缺。然而，就是在这样极端的条件下，深海生态系统展现出了惊人的生物多样性和生态适应性。
-在深海生物种类分布方面，科学家们已经发现了数千种深海特有的生物，包括各种鱼类、无脊椎动物、微生物等。这些生物中有很多都是新物种，它们展示了从未见过的形态和生理特性。例如，深海鱼类通常具有发光器官，能够在黑暗中吸引猎物或伴侣；而深海微生物则能够在海床上的热液喷口周围通过化学合成作用生长，这为我们研究地球早期生命形式提供了一扇窗口。
-深海生态链结构非常复杂，主要依赖于从上层海洋沉降下来的有机物质（称为“海洋雪”）作为能量来源。此外，深海热液喷口周围的生态系统主要依赖化学合成细菌作为初级生产者，这些细菌能够利用硫化物等无机物质与水反应产生的能量来合成有机物。这些初级生产者支持了整个深海热液生态系统，包括各种甲壳类动物、鱼类以及巨型管虫等。
-在探讨深海生物适应机制时，我们发现了一些非常有趣的生存策略。例如，深海生物通常具有较大的体型和较低的新陈代谢率，这是为了适应食物稀缺的环境；它们还发展出了特殊的压耐性结构，能够在极高水压下生存；部分深海物种还展示了延长的寿命和缓慢的生长速度，这些都是对极端环境的独特适应。
-随着人类活动范围的不断扩大，深海生态系统面临着前所未有的威胁。污染、过度捕捞、海底矿物开采等活动可能会对深海生物多样性和生态链造成不可逆转的损害。因此，深入研究深海生态系统，不仅对于理解生命在极端条件下的适应性至关重要，也对于评估人类活动的影响、制定合理的保护措施具有重要意义。通过跨学科合作，我们可以更好地揭示深海生物与环境之间的交互作用，为保护这一宝贵的自然资源提供科学依据。</t>
-  </si>
-  <si>
-    <t>深海化学环境及其对生物的影响是一个复杂而多维的领域，它不仅涉及深海中独特的化学物质组成，还包括这些化学物质如何与深海生物相互作用，以及人类活动对这一环境的影响。
-首先，深海中存在一些非常特殊的化学环境，比如温跃层和热液喷口。温跃层是海洋中温度急剧变化的区域，而热液喷口则是海底地壳中的热水喷出点，这些热水富含各种矿物质，如硫化物、铁、铜、锌等。在这些特殊的化学环境中，生命形式展现出与地表生物截然不同的适应性。例如，热液喷口周围的生物能够生存于极端的高温、高压和高毒性环境中，这些生物的生存机制包括利用化学合成而非光合作用作为能量来源，这使得深海成为了一个独特的生物化学实验室。
-深海生物对化学环境的适应主要体现在以下几个方面：
-1. **代谢途径的适应**：深海生物的代谢途径能够适应低光或无光的条件，许多生物依赖于化能合成细菌提供的能量，这些细菌能够利用热液喷口中丰富的化学物质（如硫化氢）进行能量转换。
-2. **生理结构的适应**：深海生物的生理结构适应了高压环境，例如，它们的细胞膜和蛋白质结构经过了特殊修饰，以维持在高压下的功能和稳定性。
-3. **行为适应**：一些深海生物表现出对特定化学信号的敏感性，如趋化性，这有助于它们找到食物来源或避免有害物质。
-然而，人类活动，特别是深海矿产资源的开发，可能会对这种独特的化学环境产生负面影响。矿产开采过程中可能会释放大量的重金属和有机污染物，这些污染物可以改变深海的化学平衡，对生物造成压力。例如，重金属污染可以干扰海洋生物的正常生理功能，甚至导致基因突变。此外，深海采矿活动还可能破坏深海生物的栖息地，影响它们的生存和繁殖。
-因此，作为化学家，我们需要关注深海化学环境的研究，不仅是为了更好地理解深海生命的奥秘，也是为了评估和减轻人类活动对这一脆弱生态系统的潜在影响。通过深入研究深海化学物质的组成、生物利用机制以及污染物质的扩散和影响，我们可以为保护深海环境提供科学依据和技术支持。</t>
-  </si>
-  <si>
-    <t>深海资源开发，尤其是深海矿产资源如锰结核、热液硫化物等的开采，对深海生态系统和水体质量等具有潜在的重大影响。环境科学家在进行环境影响评估时，需综合考虑多个方面，包括但不限于：
-1. **生物多样性的直接影响**：深海生态系统是地球上生物多样性最高的区域之一，许多物种尚未被人类所认知。开采活动可能导致栖息地破坏，直接影响生物多样性。生物多样性的减少不仅会改变深海生态系统的结构和功能，还可能影响到那些依赖于深海生物的上层生态系统。
-2. **水体污染**：开采过程中可能会释放有毒物质，如重金属、硫化物等，这些物质可能会对水体质量造成污染，影响海洋生物的健康，甚至通过食物链影响到人类。此外，开采过程中所使用的化学物质也可能对水体造成污染。
-3. **沉积物扰动**：深海开采活动会导致沉积物的物理扰动，可能会影响到深海生物的生存环境，改变沉积物中的化学成分，进而影响到深海生态系统的整体平衡。
-4. **生态系统服务功能的影响**：深海生态系统提供了多种生态系统服务，包括碳汇功能、生物多样性维持等。开采活动可能会对这些服务功能产生不利影响，从而对全球环境造成更广泛的影响。
-为了减少这些负面影响，可以采取以下策略和技术措施：
-- **环境基线调查**：在开采活动开始前，进行全面的环境基线调查，了解开采区域的生物多样性、水体质量等基本情况，为后续的监测和评估提供基础数据。
-- **环境影响最小化技术**：研发和采用环境友好型的开采技术和设备，如减少沉积物扰动的设备、避免或减少有毒物质排放的技术等，以降低对环境的直接影响。
-- **严格的环境监测**：建立长期的环境监测体系，定期对水体质量、生物多样性等进行监测，及时发现和处理可能出现的环境问题。
-- **生态系统恢复计划**：对于已经受到开采活动影响的区域，制定并实施生态系统恢复计划，通过人工干预等方式促进生态系统的自我恢复能力。
-- **国际合作与法规制定**：深海资源的开发涉及多个国家和利益相关方，需要通过国际合作，共同制定和执行相关国际法规，确保深海资源开发的可持续性和环境保护的有效性。
-综上所述，深海资源开发环境影响评估是一个复杂的过程，需要多学科的合作与综合考虑，以确保在开发资源的同时，保护好深海这一宝贵的自然遗产。</t>
-  </si>
-  <si>
-    <t>深海探测技术的发展与应用是一个多学科交叉的前沿领域，它不仅涉及到海洋学，还涵盖了机械工程、电子工程、计算机科学以及环境科学等多个方面。随着人类对海洋资源的兴趣日益增长，深海探测技术的进步对于理解深海环境、评估资源潜力、保护海洋生态以及进行科学探索等方面具有重要意义。
-1. **无人潜水器与深海机器人的研发**：无人潜水器（如遥控潜水器ROV和自主水下航行器AUV）是深海探测的关键工具。这些设备可以在人类无法到达的深海环境中执行任务，如环境监测、生物样本采集、海底地形测绘等。近年来，随着人工智能技术的发展，这些潜水器和机器人在自主导航、目标识别与跟踪、复杂环境下的操作能力等方面取得了显著进步。例如，通过深度学习技术，无人潜水器能够更加准确地识别海底生物和地形特征，提高任务执行的精确度。
-2. **提高技术的可靠性与效率**：深海环境极端恶劣，对设备的可靠性和效率提出了极高的要求。科研人员通过改进材料科学、优化设计、增强系统冗余度等方法，来提高设备的耐久性和适应性。例如，采用耐腐蚀材料可以延长设备在海水中的使用寿命，而通过算法优化减少能源消耗，则能增加潜水器的续航时间。此外，为了提高作业效率，研究人员还在探索如何通过人机协作或多机器人协作的方式，实现更复杂任务的完成。
-3. **确保对环境的最小化干扰**：在进行深海探测时，保护海洋生态系统是至关重要的。为此，科研团队在设计探测设备时会考虑到减少对海洋生物的影响，比如使用低噪声推进系统以减少对海洋生物的干扰，或是采用非破坏性的取样方法来减少对海底环境的破坏。同时，科学家们也在研究如何利用生物友好型材料，减少探测活动对海洋环境的污染。
-4. **跨学科合作与技术创新**：深海探测是一个高度复杂的系统工程，需要不同领域专家的紧密合作。从传感器技术到数据处理方法，从机械设计到人工智能应用，每个环节的进步都有助于推动整个领域的向前发展。通过跨学科的合作，不仅可以解决现有技术难题，还能激发新的科研思路，促进技术创新。
-综上所述，深海探测技术的发展不仅依赖于单一技术的进步，更需要多个学科领域的协同创新。随着技术的不断成熟，我们有理由相信，未来深海探测将能够为人类带来更多的知识与资源，同时在保护海洋环境方面发挥积极作用。</t>
+    <t>根据深海探测这一广泛的议题，提炼出以下核心子问题，每个问题都适合由特定学科的专家进行深入分析，并且这些问题之间存在一定的关联性：
+1. **深海生物多样性与生态系统功能**：从生物学的角度出发，探讨深海生物的种类、分布及其与深海环境之间的相互作用。研究深海生物如何适应极端环境，以及这些生物在深海生态系统中的作用。
+2. **深海物理环境特征及其变化**：从物理学和地质学的角度，分析深海的物理环境特征，如压力、温度、洋流等，并探讨这些条件如何随时间变化，以及它们对深海生态系统的影响。
+3. **深海化学环境及其对生态系统的影响**：从化学的角度，研究深海中的化学成分，包括水体中的微量元素、溶解气体等，以及深海热液喷口等特殊环境的化学特征，探讨这些化学因素如何影响深海生物和生态系统的健康与稳定。
+4. **深海资源的开发与环境保护**：从地理学和环境科学的角度，讨论深海资源（如矿物、生物资源）的勘探与开采，包括相关技术、经济可行性和环境影响评估，探讨如何在资源开发的同时保护深海环境免受破坏。
+5. **深海探测技术的发展现状与未来趋势**：从技术科学的角度，分析当前深海探测技术的发展水平，包括遥控潜水器、自主水下机器人等，探讨未来技术进步可能带来的深海探测新机遇。
+这些问题共同构成了深海探测这一复杂议题的基础，通过跨学科的合作研究，能够更全面地理解和面对深海的挑战与机遇。</t>
+  </si>
+  <si>
+    <t>深海生物多样性与生态系统功能是当前海洋生物学研究中的一个热点领域。深海，通常指水深超过200米的海洋区域，这里环境极端，光照缺乏、压力巨大、温度低且变化小，物质和能量来源有限。然而，就是在这样恶劣的条件下，深海生物展现出了惊人的多样性和适应性。
+### 深海生物的种类与分布
+深海生物种类繁多，包括但不限于巨型乌贼、深海鱼类、管虫（如热液喷口周围的管虫）、深海海绵、深海软体动物（如深海蜗牛）、深海甲壳动物等。其中，一些生物如热液喷口周围的管虫，能够通过与体内共生细菌的关系，利用化学合成作用获取能量，这在极端深海环境中是一种独特的生存策略。
+### 适应极端环境的机制
+深海生物为了适应这些极端环境，发展出了多种适应机制：
+- **高压适应**：深海生物体内的细胞结构和代谢过程能够适应高压环境，有些生物通过改变细胞膜的脂肪酸组成来保持细胞膜的流动性。
+- **低温适应**：深海生物通常具有较低的新陈代谢率，以减少能量消耗，并且一些生物能够合成抗冻蛋白来防止体液冻结。
+- **黑暗适应**：许多深海生物发展出了生物发光的能力，这种能力用于捕食、防御或求偶等。
+- **食物稀缺适应**：深海生物具有高效的能量利用效率，有些生物能够进入长时间的休眠状态以应对食物稀缺的情况。
+### 生物与环境的相互作用
+深海生物与环境之间的相互作用是维持深海生态系统功能的关键。例如，深海沉积物中的微生物通过矿化作用分解有机物，为深海生态系统提供营养物质。此外，深海生物如管虫与硫细菌的共生关系，不仅促进了深海热液喷口生态系统的能量流动，还指示了生命在极端条件下的可能性。
+### 生态系统功能
+深海生态系统在地球的碳循环中扮演着重要角色。深海生物通过食物链的传递，将表层海洋的有机碳转移到深海，这一过程被称为生物泵作用，对于减缓全球气候变化具有潜在贡献。此外，深海生物的多样性也对维持海洋生态系统的稳定性和恢复力至关重要。
+综上所述，深海生物不仅展示了生命的多样性和适应性，而且在深海生态系统中扮演着不可或缺的角色。它们的存在和活动对于理解地球生物多样性的极限、深海生态系统的功能以及地球系统过程（如碳循环）具有重要的科学意义。未来的研究将继续探索深海生物的更多秘密，以及它们如何帮助我们应对全球环境挑战。</t>
+  </si>
+  <si>
+    <t>从物理学和地质学的角度分析深海的物理环境特征，以及它们随时间的变化和对深海生态系统的影响，是一个复杂而多维的问题。深海环境以其极端的条件著称，这些条件包括极高的压力、低温、恒定的黑暗以及复杂的洋流系统。这些物理环境特征不仅定义了深海的独特性，也对其生态系统产生了深远的影响。
+1. **压力**：深海的压力随着深度的增加而显著增加。海面的压力大约为1大气压，而每下降10米，压力就会增加大约1大气压。在深海的某些区域，如海沟，压力可以达到1100个大气压。这种极端的压力对生物体结构和功能提出了特殊要求，比如深海生物体内的细胞结构需要适应高压环境，一些深海生物还能产生特殊的蛋白质来稳定其体内的酶活性。
+2. **温度**：深海的温度普遍较低，通常在1-4℃之间。然而，深海热液喷口周围的温度可以达到300℃以上，这种极端的温差为深海生态系统提供了多样化的栖息地。低温环境减缓了生物的新陈代谢速率，有助于延长寿命，但同时也限制了生物的生长速度。
+3. **洋流**：深海洋流是驱动全球海洋热盐循环的关键，它们负责输送热量、盐分和溶解的气体（如氧气和二氧化碳）至深海。这些洋流可以影响深海的温度和化学组成，进而影响深海生物的分布和多样性。例如，上升流可以将营养物质带到表层，促进浮游植物的生长，而这对整个海洋食物链至关重要。
+4. **时间变化**：深海环境虽然相对稳定，但会受到全球气候变化的影响。气候变暖导致的海水温度升高和海平面上升可能会影响深海的温度和压力，进而影响深海生态系统。此外，人类活动如深海采矿和污染也可能对深海环境造成不可逆的损害。
+5. **对深海生态系统的影响**：深海的物理环境特征直接决定了深海生物的适应策略和生态位。高压、低温和黑暗等条件促使深海生物发展出独特的生活方式，如生物发光、特殊的捕食技巧和高效的能量利用效率。同时，深海的稳定性也使得一些深海物种有着极长的生命周期，但这也意味着它们对环境变化的响应能力较低，容易受到威胁。
+综上所述，深海的物理环境特征及其随时间的变化对深海生态系统产生了深刻影响，这些影响不仅体现在生物的形态、生理和行为上，也体现在生态系统结构和功能上。随着全球环境的不断变化，对深海环境的进一步研究变得更加重要，以评估和减轻人类活动对这一脆弱生态系统的潜在影响。</t>
+  </si>
+  <si>
+    <t>深海化学环境的研究是一个极其重要且复杂的领域，它不仅涉及到水体中化学成分的测定，还包括这些成分如何影响深海生物和生态系统的健康与稳定。从化学的角度出发，我们可以将研究焦点放在以下几个方面：
+1. **微量元素的分布与循环**：深海中微量元素的分布对于理解海洋生物地球化学循环至关重要。例如，铁是许多深海生物必需的微量元素，对初级生产力有重要影响。研究铁和其他微量元素（如锰、铜、锌等）在深海水体中的浓度、来源、分布和循环，对于评估深海生态系统对全球气候的响应有着重要意义。
+2. **溶解气体的化学特征**：深海中的溶解气体，如氧气、二氧化碳、甲烷等，对深海生态系统的健康至关重要。氧气水平直接影响深海生物的生存，而二氧化碳的溶解度和通量影响着深海酸化过程，进而影响钙化生物的生存。此外，甲烷作为一种重要的温室气体，在深海的释放量对全球气候变化有潜在影响。
+3. **深海热液喷口的化学特征**：深海热液喷口是深海化学环境中的一个独特现象，这些喷口释放的高温液体中富含硫化物、重金属离子以及其他溶解物质。这些化学成分的含量和种类对周边环境的生物多样性和生态系统的形成具有决定性作用。热液喷口周围的生物群落展示了高度适应这些极端环境的生存策略，如硫细菌通过化学合成作用利用硫化物产生能量，支持了复杂的生态系统。
+4. **化学因素对深海生物的影响**：深海生物对于特定化学成分的依赖性很高。例如，某些深海生物能够利用化学能量（而非光能）进行生存，这种现象被称为化能合成作用。通过研究这些化学过程，我们可以更深入地了解深海生物如何适应环境，以及它们与环境之间的相互作用。
+5. **深海化学环境的保护与管理**：随着人类活动对深海环境的影响日益增大，了解和保护深海化学环境变得尤为重要。研究深海化学成分的变化趋势，评估人类活动（如深海采矿、污染排放等）对深海生态系统的影响，对于制定合理的保护策略具有指导意义。
+综上所述，深海化学环境的研究不仅加深了我们对深海生态系统复杂性的理解，也为全球环境保护和可持续发展提供了科学依据。通过对深海化学环境的深入研究，我们可以更好地保护这片地球上最后一片相对未开发的区域，确保其生态系统的健康与稳定。</t>
+  </si>
+  <si>
+    <t>从地理学和环境科学的角度来看，深海资源的勘探与开采是一个复杂而多维的问题。深海资源主要可以分为矿物资源和生物资源两大类。矿物资源包括多金属结核、热液硫化物、富钴结壳等，而生物资源则涉及深海鱼类、珊瑚、微生物等。这些资源的开发对人类社会有着重要的经济和技术意义，但同时也伴随着对深海环境的潜在影响。
+### 深海资源勘探与开采的相关技术
+- **矿物资源勘探**：使用声纳、海底摄影、自动水下航行器（AUVs）、遥控操作车辆（ROVs）等技术进行海底地形测绘、矿物识别和资源量估算。
+- **生物资源勘探**：依赖于远程操作设备和先进的生物采样技术，如环境DNA（eDNA）分析，能够更有效地识别和研究深海生物多样性。
+- **开采技术**：深海矿物开采技术包括连续线性采集系统、深海挖泥船、海底连续采矿机等。生物资源的采集则需要更加精细的捕捞技术和保护措施，以减少对周围生态系统的干扰。
+### 经济可行性
+- **成本与收益**：深海资源的开发成本高昂，包括勘探、设备、运输和处理成本。尽管如此，随着技术的进步和资源价格的波动，某些深海资源的开发已经显示出经济上的吸引力。
+- **市场需求**：随着全球经济的发展，对稀有金属和生物制品的需求日益增长，为深海资源的开发提供了市场基础。
+- **政策与法规**：国际和国家层面的法规对深海资源开发的经济可行性有着重要影响，包括许可费用、税收、环境保护要求等。
+### 环境影响评估
+- **生态系统影响**：深海生态系统极其脆弱，深海采矿可能破坏海底地形，影响深海生物的栖息地，导致生物多样性的丧失。
+- **化学污染**：采矿活动可能会释放有害化学物质，如重金属和硫化物，这些物质可能对深海生态系统造成长期影响。
+- **噪音污染**：深海采矿设备产生的噪音可能干扰深海生物的正常生活习性。
+### 保护深海环境的措施
+- **环境管理规划**：在资源开发前进行详细的环境影响评估，制定严格的环境保护标准，包括设立禁采区，限制开采活动的范围。
+- **技术创新**：开发更环保的采矿技术，减少对深海环境的影响，例如使用低噪音设备，减少化学物质的排放。
+- **国际合作**：深海资源属于全人类的公有财产，需要国际社会的合作，共同制定和遵守国际法，确保深海资源的可持续开发。
+- **长期监测**：建立长期的环境监测系统，跟踪深海生态系统的健康状况，及时调整开采活动，减少对环境的负面影响。
+综上所述，深海资源的勘探与开采是一个涉及多学科、多层面的复杂过程。在追求资源开发带来的经济利益的同时，必须高度重视环境保护，通过科技进步、严格的环境管理和国际合作，实现深海资源的可持续利用与发展。</t>
+  </si>
+  <si>
+    <t>深海探测技术是当代海洋科学研究与开发的核心领域，涉及遥控潜水器（ROV）、自主水下机器人（AUV）等多类型探测设备。这些技术的发展不仅极大地推动了我们对深海环境的认识，也为资源开发、环境保护等领域提供了强有力的技术支持。从技术科学的角度来看，当前深海探测技术的发展水平和未来趋势可以归纳为以下几个方面：
+1. **遥控潜水器（ROV）的技术现状与挑战**
+   - **技术现状**：当前，ROV技术已经相当成熟，广泛应用于海洋科学、海底工程、资源勘探等多个领域。ROV通过电缆与母船连接，可以进行长时、远程的操作。现代ROV配备了高清摄像机、多波束声纳、机械臂等设备，能够执行复杂的海底作业，如样品采集、环境监测等。
+   - **技术挑战**：尽管如此，ROV也面临着一些技术挑战，包括电缆长度限制了作业范围、深海环境对电缆的耐压和耐腐蚀要求极高、以及在极端条件下设备的可靠性和耐用性等。此外，深海通信技术也是制约ROV进一步发展的一个重要因素。
+2. **自主水下机器人（AUV）的技术进展**
+   - **技术进展**：AUV是近年来发展迅速的一种深海探测工具，它无需与母船保持物理连接，能够在预定的路径上自主执行任务，极大地扩展了深海探测的范围和深度。AUV集成了先进的导航、定位、传感技术，能够在无人干预的情况下完成长时间的任务，如海洋测绘、水质监测等。
+   - **技术趋势**：未来，AUV的发展将更加注重智能化和群体协作能力。通过集成人工智能算法，AUV将能够更好地理解复杂的海洋环境，自主作出决策；而通过群体协作，多个AUV可以共同完成更复杂的任务，提高探测效率和质量。
+3. **深海探测的新机遇**
+   - **深海生物资源的探索**：随着深海探测技术的进步，人类对深海生物多样性的认识逐渐加深，发现了许多新物种。未来，通过更精确的探测手段，可以进一步揭示深海生态系统的秘密，为生物技术的发展提供新的资源。
+   - **深海矿产资源的开发**：深海蕴藏着丰富的矿产资源，如多金属结核、热液硫化物等。先进的深海探测技术将有助于更准确地评估这些资源的分布和储量，为未来的开发利用提供科学依据。
+   - **环境保护与监测**：深海探测技术的发展也为海洋环境保护提供了新的手段。通过定期监测深海环境的变化，可以及时发现并应对可能发生的环境污染和生态破坏，保护深海这一地球上最后的净土。
+综上所述，深海探测技术正处于快速发展阶段，遥控潜水器和自主水下机器人等设备的应用前景广阔。未来，随着技术的不断进步，深海探测将面临更多的机遇，同时也需要克服一系列技术挑战，以实现更加安全、高效、智能的深海探索。</t>
   </si>
   <si>
     <t>### 深海探测的多学科综合分析
-#### 1. 深海地形与地质结构的探测与分析
-**地理学教授**
-深海地形与地质结构的探测与分析是一个多学科交叉的综合研究任务，涉及地理学、地质学等多个领域。本项目旨在利用先进的声纳技术和遥感技术，对深海海底的地形地貌进行详细的测量与分析。通过这些技术手段，我们能够获取高分辨率的海底地形数据，包括海底山脉、海沟、平顶山等地质结构的具体形态和分布特征。
-在项目实施过程中，我们将重点研究这些地质结构对海洋环境的影响，例如它们如何影响洋流路径、海洋生物的分布、沉积物的运输和沉积过程等。此外，我们还将探索这些地质结构与全球变化之间的关系，以及它们在地球系统中的作用。
-为了确保项目的顺利进行，我们将与地质学、海洋生物学、化学及地球物理学等领域的专家紧密合作，共同完成数据的收集、处理和分析工作。通过本项目的实施，我们预期能够深化对海洋地质结构及其环境效应的认识，为保护海洋环境、合理利用海洋资源提供科学依据。同时，该项目还将促进相关科学技术的发展，为未来的深海探测和研究奠定基础。
-#### 2. 深海生态系统与生物多样性调查
-**生物学教授**
-深海生态系统是地球上最神秘也是最末被充分探索的区域之一。这些环境通常位于海平面以下200米，一直延伸到深达11000米的马里亚纳海沟。深海环境的特征包括极端的压力、低温、完全的黑暗以及食物资源的极度稀缺。然而，就是在这样极端的条件下，深海生态系统展现出了惊人的生物多样性和生态适应性。
-在深海生物种类分布方面，科学家们已经发现了数千种深海特有的生物，包括各种鱼类、无脊椎动物、微生物等。这些生物中有很多都是新物种，它们展示了从未见过的形态和生理特性。例如，深海鱼类通常具有发光器官，能够在黑暗中吸引猎物或伴侣；而深海微生物则能够在海床上的热液喷口周围通过化学合成作用生长，这为我们研究地球早期生命形式提供了一扇窗口。
-深海生态链结构非常复杂，主要依赖于从上层海洋沉降下来的有机物质（称为“海洋雪”）作为能量来源。此外，深海热液喷口周围的生态系统主要依赖化学合成细菌作为初级生产者，这些细菌能够利用硫化物等无机物质与水反应产生的能量来合成有机物。这些初级生产者支持了整个深海热液生态系统，包括各种甲壳类动物、鱼类以及巨型管虫等。
-在探讨深海生物适应机制时，我们发现了一些非常有趣的生存策略。例如，深海生物通常具有较大的体型和较低的新陈代谢率，这是为了适应食物稀缺的环境；它们还发展出了特殊的压耐性结构，能够在极高水压下生存；部分深海物种还展示了延长的寿命和缓慢的生长速度，这些都是对极端环境的独特适应。
-随着人类活动范围的不断扩大，深海生态系统面临着前所未有的威胁。污染、过度捕捞、海底矿物开采等活动可能会对深海生物多样性和生态链造成不可逆转的损害。因此，深入研究深海生态系统，不仅对于理解生命在极端条件下的适应性至关重要，也对于评估人类活动的影响、制定合理的保护措施具有重要意义。通过跨学科合作，我们可以更好地揭示深海生物与环境之间的交互作用，为保护这一宝贵的自然资源提供科学依据。
-#### 3. 深海化学环境及其对生物的影响
-**化学教授**
-深海化学环境及其对生物的影响是一个复杂而多维的领域，它不仅涉及深海中独特的化学物质组成，还包括这些化学物质如何与深海生物相互作用，以及人类活动对这一环境的影响。
-首先，深海中存在一些非常特殊的化学环境，比如温跃层和热液喷口。温跃层是海洋中温度急剧变化的区域，而热液喷口则是海底地壳中的热水喷出点，这些热水富含各种矿物质，如硫化物、铁、铜、锌等。在这些特殊的化学环境中，生命形式展现出与地表生物截然不同的适应性。例如，热液喷口周围的生物能够生存于极端的高温、高压和高毒性环境中，这些生物的生存机制包括利用化学合成而非光合作用作为能量来源，这使得深海成为了一个独特的生物化学实验室。
-深海生物对化学环境的适应主要体现在以下几个方面：
-1. **代谢途径的适应**：深海生物的代谢途径能够适应低光或无光的条件，许多生物依赖于化能合成细菌提供的能量，这些细菌能够利用热液喷口中丰富的化学物质（如硫化氢）进行能量转换。
-2. **生理结构的适应**：深海生物的生理结构适应了高压环境，例如，它们的细胞膜和蛋白质结构经过了特殊修饰，以维持在高压下的功能和稳定性。
-3. **行为适应**：一些深海生物表现出对特定化学信号的敏感性，如趋化性，这有助于它们找到食物来源或避免有害物质。
-然而，人类活动，特别是深海矿产资源的开发，可能会对这种独特的化学环境产生负面影响。矿产开采过程中可能会释放大量的重金属和有机污染物，这些污染物可以改变深海的化学平衡，对生物造成压力。例如，重金属污染可以干扰海洋生物的正常生理功能，甚至导致基因突变。此外，深海采矿活动还可能破坏深海生物的栖息地，影响它们的生存和繁殖。
-因此，作为化学家，我们需要关注深海化学环境的研究，不仅是为了更好地理解深海生命的奥秘，也是为了评估和减轻人类活动对这一脆弱生态系统的潜在影响。通过深入研究深海化学物质的组成、生物利用机制以及污染物质的扩散和影响，我们可以为保护深海环境提供科学依据和技术支持。
-#### 4. 深海资源开发的环境影响评估
-**地理学教授**
-深海资源开发，尤其是深海矿产资源如锰结核、热液硫化物等的开采，对深海生态系统和水体质量等具有潜在的重大影响。环境科学家在进行环境影响评估时，需综合考虑多个方面，包括但不限于：
-1. **生物多样性的直接影响**：深海生态系统是地球上生物多样性最高的区域之一，许多物种尚未被人类所认知。开采活动可能导致栖息地破坏，直接影响生物多样性。生物多样性的减少不仅会改变深海生态系统的结构和功能，还可能影响到那些依赖于深海生物的上层生态系统。
-2. **水体污染**：开采过程中可能会释放有毒物质，如重金属、硫化物等，这些物质可能会对水体质量造成污染，影响海洋生物的健康，甚至通过食物链影响到人类。此外，开采过程中所使用的化学物质也可能对水体造成污染。
-3. **沉积物扰动**：深海开采活动会导致沉积物的物理扰动，可能会影响到深海生物的生存环境，改变沉积物中的化学成分，进而影响到深海生态系统的整体平衡。
-4. **生态系统服务功能的影响**：深海生态系统提供了多种生态系统服务，包括碳汇功能、生物多样性维持等。开采活动可能会对这些服务功能产生不利影响，从而对全球环境造成更广泛的影响。
-为了减少这些负面影响，可以采取以下策略和技术措施：
-- **环境基线调查**：在开采活动开始前，进行全面的环境基线调查，了解开采区域的生物多样性、水体质量等基本情况，为后续的监测和评估提供基础数据。
-- **环境影响最小化技术**：研发和采用环境友好型的开采技术和设备，如减少沉积物扰动的设备、避免或减少有毒物质排放的技术等，以降低对环境的直接影响。
-- **严格的环境监测**：建立长期的环境监测体系，定期对水体质量、生物多样性等进行监测，及时发现和处理可能出现的环境问题。
-- **生态系统恢复计划**：对于已经受到开采活动影响的区域，制定并实施生态系统恢复计划，通过人工干预等方式促进生态系统的自我恢复能力。
-- **国际合作与法规制定**：深海资源的开发涉及多个国家和利益相关方，需要通过国际合作，共同制定和执行相关国际法规，确保深海资源开发的可持续性和环境保护的有效性。
-综上所述，深海资源开发环境影响评估是一个复杂的过程，需要多学科的合作与综合考虑，以确保在开发资源的同时，保护好深海这一宝贵的自然遗产。
-#### 5. 深海探测技术的发展与应用
-**人工智能教授**
-深海探测技术的发展与应用是一个多学科交叉的前沿领域，它不仅涉及到海洋学，还涵盖了机械工程、电子工程、计算机科学以及环境科学等多个方面。随着人类对海洋资源的兴趣日益增长，深海探测技术的进步对于理解深海环境、评估资源潜力、保护海洋生态以及进行科学探索等方面具有重要意义。
-1. **无人潜水器与深海机器人的研发**：无人潜水器（如遥控潜水器ROV和自主水下航行器AUV）是深海探测的关键工具。这些设备可以在人类无法到达的深海环境中执行任务，如环境监测、生物样本采集、海底地形测绘等。近年来，随着人工智能技术的发展，这些潜水器和机器人在自主导航、目标识别与跟踪、复杂环境下的操作能力等方面取得了显著进步。例如，通过深度学习技术，无人潜水器能够更加准确地识别海底生物和地形特征，提高任务执行的精确度。
-2. **提高技术的可靠性与效率**：深海环境极端恶劣，对设备的可靠性和效率提出了极高的要求。科研人员通过改进材料科学、优化设计、增强系统冗余度等方法，来提高设备的耐久性和适应性。例如，采用耐腐蚀材料可以延长设备在海水中的使用寿命，而通过算法优化减少能源消耗，则能增加潜水器的续航时间。此外，为了提高作业效率，研究人员还在探索如何通过人机协作或多机器人协作的方式，实现更复杂任务的完成。
-3. **确保对环境的最小化干扰**：在进行深海探测时，保护海洋生态系统是至关重要的。为此，科研团队在设计探测设备时会考虑到减少对海洋生物的影响，比如使用低噪声推进系统以减少对海洋生物的干扰，或是采用非破坏性的取样方法来减少对海底环境的破坏。同时，科学家们也在研究如何利用生物友好型材料，减少探测活动对海洋环境的污染。
-4. **跨学科合作与技术创新**：深海探测是一个高度复杂的系统工程，需要不同领域专家的紧密合作。从传感器技术到数据处理方法，从机械设计到人工智能应用，每个环节的进步都有助于推动整个领域的向前发展。通过跨学科的合作，不仅可以解决现有技术难题，还能激发新的科研思路，促进技术创新。
-综上所述，深海探测技术的发展不仅依赖于单一技术的进步，更需要多个学科领域的协同创新。随着技术的不断成熟，我们有理由相信，未来深海探测将能够为人类带来更多的知识与资源，同时在保护海洋环境方面发挥积极作用。
-### 总结
-深海探测是一个多学科交叉的复杂领域，涉及地理学、地质学、生物学、化学、环境科学以及人工智能等多个学科。通过综合分析深海地形与地质结构、深海生态系统与生物多样性、深海化学环境及其对生物的影响、深海资源开发的环境影响评估以及深海探测技术的发展与应用，我们可以更全面地理解深海环境，评估人类活动的影响，并提出科学的保护措施和技术手段。这些研究不仅有助于推动科学技术的进步，还对保护深海这一宝贵的自然遗产具有重要意义。</t>
-  </si>
-  <si>
-    <t>从数学的角度建立深海探测的数学模型，旨在预测深海地形、生物分布和化学环境的变化，这需要综合运用微积分、概率论、图论与优化等多种数学工具。以下是一个概括性的步骤和方法，用于构建此类模型：
-1. **数据收集与预处理**：首先，通过各种深海探测技术（如声纳、遥感、深海机器人等）收集深海地形、生物分布、化学成分等数据。这些数据可能含有噪声和缺失值，因此需要进行数据清洗和预处理，如使用统计方法填补缺失值，运用平滑算法减少噪声。
-2. **地形建模**：
-   - **微分几何**：可以利用微分几何的方法来描述海底地形的曲率，通过地形的高程数据构建三维地形模型。
-   - **表面拟合**：采用多项式回归或者样条插值方法对地形数据进行拟合，得到连续的地形表面方程，便于后续的分析和计算。
-3. **生物分布建模**：
-   - **概率分布**：基于已有的生物样本数据，使用概率论中的分布函数（如泊松分布、正态分布等）来预测特定物种在不同区域的分布密度。
-   - **生态位模型**：结合物种的生态习性和环境因素（如水温、盐度、光照等），利用逻辑回归或随机森林等机器学习方法构建生态位模型，预测物种的潜在分布区域。
-4. **化学环境变化建模**：
-   - **化学反应动力学**：利用化学动力学方程描述深海化学物质的生成、消耗过程，以及它们之间的相互作用。
-   - **偏微分方程**：对于化学物质在水体中的扩散过程，可以建立偏微分方程模型，如扩散方程，通过数值求解方法预测化学物质的时空分布。
-5. **多变量分析与系统模拟**：
-   - **系统动力学**：构建深海环境的系统动力学模型，综合考虑地形、生物、化学等多方面因素的相互作用，预测环境变化的长期趋势。
-   - **多目标优化**：使用图论和优化算法来解决深海资源开发与环境保护之间的平衡问题，如最小化对生态环境的影响同时最大化资源利用效率。
-6. **模型验证与更新**：利用新收集的数据对模型进行验证，评估模型的预测精度，并根据实际变化不断调整和优化模型参数。
-7. **决策支持与应用**：将模型结果转化为决策支持工具，为深海探测、资源开发、环境保护等提供科学依据。
-综上所述，建立深海探测的数学模型是一个复杂的系统工程，需要跨学科合作，不断迭代优化，以提高模型的准确性和实用性。</t>
-  </si>
-  <si>
-    <t>从物理学的角度出发，声纳技术和遥感技术在深海探测中扮演着至关重要的角色，尤其是在地形测绘和生物分布监测方面。这些技术的发展不仅深化了我们对深海环境的理解，也推动了多学科研究的进步，为深海资源的合理利用和环境保护提供了科学依据。
-声纳技术，作为一种基于声波的探测手段，是深海地形测绘的主要工具。它利用声波在水中的传播特性，通过发射声波并接收其回波来探测海底地形。声纳系统可以分为两大类：主动声纳和被动声纳。主动声纳通过发射声波信号并接收从海底反射回来的声波信号来工作，可以提供高分辨率的海底地形图像，包括海底山脉、海沟、平原等地形特征。而被动声纳则通过监听海洋生物或海洋环境中自然产生的声波来进行探测，对于生物分布监测特别有用。
-在地形测绘方面，多波束声纳技术是现代深海探测的标志性技术之一。多波束声纳能够同时发射多个声波束，覆盖较大的海底区域，生成三维海底地形模型，这对于海洋地质研究、海底资源勘探和海洋工程规划具有重要意义。通过这种技术，科学家可以精确绘制出海底地形图，评估海底滑坡风险，甚至发现新的深海热液喷口等现象。
-遥感技术，尤其是卫星遥感，在深海探测中的应用主要集中在对海面特征的观测上，如海水温度、盐度、海流以及海面高度等参数的监测。虽然卫星遥感无法直接穿透水体探测深海地形或生物，但它能提供关于海洋表面环境的重要信息，这对于理解深海生态系统和气候变化影响至关重要。通过分析这些数据，研究人员可以间接推断深海环境的变化趋势。
-在生物分布监测方面，声纳技术同样发挥着重要作用。被动声纳技术可以用于监听海洋生物的声音，包括鲸鱼的歌声、海豚的点击声等，这些声音可以作为生物种类和数量分布的指示器。此外，通过分析声纳图像中的特征，科学家可以识别和追踪海洋生物的移动模式，了解它们的生活习性和种群动态。
-综上所述，声纳技术和遥感技术在深海探测中具有互补性，通过综合运用这两项技术，我们能够获得深海环境的全面图像，这对于深海资源的可持续管理和深海生态系统的保护具有重要的科学价值和现实意义。</t>
-  </si>
-  <si>
-    <t>深海生态系统是地球上最未被充分探索的领域之一，它被认为是生物多样性的重要宝库。从生物学的角度研究深海生态系统的生物多样性和生态适应机制，需要综合运用多种研究方法和技术手段，这些研究对于深海保护具有重要的科学依据。以下是研究深海生态系统的几个关键方面：
-1. **生物多样性的调查与记录**：首先需要利用深海探测器、潜水器等设备进行深海生物的采样，包括水生生物的影像记录和物理采集。通过这些样品的收集，可以对深海生物的种类、数量、分布等进行初步的统计分析，建立深海生物多样性的数据库。同时，利用分子生物学技术，如DNA条形码技术，可以对难以通过形态学区分的物种进行精准鉴定，进一步丰富生物多样性信息。
-2. **生态适应性的研究**：深海环境极端，具有高压、低温、无光、营养物质贫乏等特点。研究深海生物如何适应这样的环境，是理解其生态适应机制的关键。这涉及到对深海生物的生理机制、代谢途径、遗传背景等多方面的深入研究。例如，通过基因组学、转录组学、蛋白质组学等高通量测序技术，可以揭示深海生物特有的基因表达模式和代谢网络，了解它们如何调节自身以适应深海环境。
-3. **生态系统功能与结构的解析**：深海生态系统是一个由多种生物构成的复杂网络，生物之间存在着密切的相互作用。通过构建生物网络模型，研究生物间的捕食关系、共生关系等，可以深入了解深海生态系统如何维持其结构和功能。此外，还需要研究深海生态系统的能量流动和物质循环，以评估深海生态系统对全球变化的响应和贡献。
-4. **人类活动影响的评估**：随着深海资源的开发，如矿产资源的开采、海洋生物资源的利用等，人类活动对深海环境的影响日益显著。通过历史数据的回顾和现有生态系统状况的监测，可以评估这些活动对深海生物多样性的影响，识别受威胁的物种和区域，为制定保护策略提供科学依据。
-5. **保护措施的科学制定**：基于上述研究，可以提出针对性的深海保护措施，如建立深海保护区、限制特定区域的资源开发活动、制定深海生物资源的可持续利用方案等。同时，需要加强国际合作，因为深海环境是全球性的资源，保护工作需要全球的共同努力。
-通过这些研究，不仅可以丰富我们对深海生物多样性和生态适应机制的认识，而且能够为深海保护提供坚实的科学基础，促进海洋资源的可持续利用和保护，维护地球生态系统的健康与稳定。</t>
-  </si>
-  <si>
-    <t>从化学的角度研究深海化学环境及其对生物的影响，以及人类活动对这一环境的潜在影响，需要综合运用各种化学方法和技术。首先，我们可以通过采集深海水样、沉积物样以及生物样本，利用高效液相色谱（HPLC）、气相色谱-质谱联用（GC-MS）、电感耦合等离子体质谱（ICP-MS）等现代分析技术，对样品中的化学物质进行定性和定量分析。这不仅包括天然存在的无机离子、微量元素、有机物等，也包括由人类活动带入的有机污染物、重金属、塑料微粒等。
-其次，我们需要研究这些化学物质在深海环境中的迁移转化机制。例如，重金属和有机污染物如何被深海沉积物吸附或解吸，以及它们在食物链中的传递和生物累积效应。这涉及到对化学物质与深海沉积物或生物体表面的相互作用进行详细的分子水平研究，包括吸附动力学、吸附等温线、表面反应机制等。
-再者，深海环境的独特性，如高压、低温、黑暗等条件，对生物体的生理和代谢过程产生影响，进而影响其对化学物质的敏感性和耐受性。因此，从化学角度研究深海生物对环境变化的响应，需要结合生物化学、分子生物学等知识，探讨深海生物体内的酶活性、蛋白质结构与功能的变化，以及基因表达的调控机制。
-此外，人类活动对深海化学环境的影响也是一个重要的研究方向。海洋污染、深海采矿、石油泄漏等都可能改变深海环境的化学组成，影响深海生态系统的健康。化学研究可以评估这些活动产生的污染物的种类、浓度和分布，预测其长期的环境影响，为制定有效的环境保护措施提供科学依据。
-最后，深海探测技术的发展，如无人潜水器、遥控水下机器人（ROV）等，也为深入研究深海化学环境提供了可能。通过这些技术，科学家可以在深海现场进行实时监测，收集更多关于深海环境动态变化的第一手资料，对于理解深海化学环境的复杂性和变异性具有重要意义。
-综上所述，从化学的角度研究深海化学环境及其对生物的影响，以及人类活动对这一环境的潜在影响，是一个涉及多种化学技术和理论的综合研究领域，对于保护深海环境和维持深海生态系统的健康具有重要的科学价值和实际意义。</t>
-  </si>
-  <si>
-    <t>从地理学的角度进行深海地形与地质结构的探测与分析，以及深海资源开发的环境影响评估，是一个系统而复杂的任务，需要运用现代技术手段和多学科知识。以下是从地理学角度进行深海探测的主要步骤和技术手段：
-1. **深海地形与地质结构的探测**：
-   - **声波探测技术**：利用声波在水中传播的特性，通过多波束测深系统（Multibeam Echo Sounder, MBES）或单波束测深仪（Single Beam Echo Sounder, SBES）进行深海地形的高精度探测。多波束测深系统能够同时获得多条声波回波数据，从而构建出更加精细的海底地形图。
-   - **重力和磁力探测**：通过探测海底重力场和磁场的变化，可以间接了解海底下的地质结构，如断层、地壳厚度等。这对于理解深海的地质背景和构造运动具有重要意义。
-   - **海底沉积物采样**：通过海底钻探或沉积物取样，可以直接获取海底物质的成分信息，对海底沉积环境和地质历史进行分析。
-2. **深海生态系统与生物多样性研究**：
-   - **遥控潜水器（ROV）和自主水下航行器（AUV）**：这些设备可以深入海底进行直接观察和采样，收集深海生物的视频资料、生物样本以及环境参数，对于研究深海生态系统的结构和功能至关重要。
-   - **生物标志物分析**：通过分析深海生物体内的化学成分，可以了解生物适应深海环境的机制，以及深海生态系统对环境变化的响应。
-3. **深海化学环境及其对生物的影响**：
-   - **原位监测技术**：利用放置在海底的传感器网络，可以长期监测深海环境的化学参数，如温度、盐度、pH值、溶解氧等，以评估环境变化对深海生态系统的影响。
-   - **实验室分析**：通过收集的深海水样和生物样本，在实验室条件下进行详细的化学分析，可以深入了解深海环境的化学特征及其对生物的影响。
-4. **深海资源开发的环境影响评估**：
-   - **环境基线调查**：在深海资源开发前期，进行详细的环境基线调查，建立区域内的环境状况本底数据，为后续的环境影响评估提供基础。
-   - **环境影响预测模型**：基于已有的深海环境数据和资源开发计划，建立环境影响预测模型，评估开发活动可能对深海生态系统造成的短期和长期影响。
-   - **环境监测与管理**：在资源开发过程中，持续进行环境监测，及时发现并处理可能的环境问题，确保深海资源的可持续开发利用。
-5. **深海探测技术的发展与应用**：
-   - **人工智能与大数据技术**：利用人工智能和大数据技术处理和分析深海探测数据，提高数据处理效率和准确性，支持深海环境和资源的精细化管理。
-   - **国际协作与共享**：深海探测是一项高成本、高风险的活动，需要国际间的合作与数据共享，共同推进深海科学研究和技术进步。
-综上所述，深海地形与地质结构的探测、深海资源开发的环境影响评估是一个多学科合作的过程，需要综合运用现代探测技术、环境科学方法以及先进的信息技术，以确保深海资源的合理开发和环境保护。</t>
-  </si>
-  <si>
-    <t>从人工智能的角度发展和应用深海探测技术，特别是在无人潜水器（ROV）、自主水下航行器（AUV）、环境监测与管理等方面的应用，可以分为以下几个方面：
-1. **智能导航与路径规划**：通过集成先进的机器学习技术，如深度学习和强化学习，无人潜水器和自主水下航行器可以在复杂的水下环境中实现自主导航和路径规划。这些技术可以实时处理环境数据，识别障碍物，并规划最优路径，从而提高探测效率和安全性。
-2. **环境感知与数据融合**：利用传感器网络，结合计算机视觉和图像处理技术，无人潜水器和自主水下航行器可以实时采集和分析海底地形、地质结构、生物分布等多模态数据。通过数据融合技术，可以生成高精度的海底地图，为科学研究和资源开发提供重要支持。
-3. **自主决策与任务管理**：通过引入决策树、遗传算法、模糊逻辑等人工智能技术，无人潜水器和自主水下航行器可以在执行复杂任务时进行自主决策。例如，当遇到突发情况时，可以自动调整任务优先级，优化资源分配，确保任务的顺利完成。
-4. **环境监测与管理**：利用人工智能技术，可以实现对深海环境的长期、连续监测。通过部署智能传感器网络，可以实时监测水质、温度、盐度、生物活动等参数，并通过大数据分析，预测环境变化趋势，为环境保护和管理提供科学依据。
-5. **资源开发与保护**：在深海资源开发过程中，人工智能可以用于评估环境影响，优化开采方案。例如，通过模拟不同开采方案对生态系统的影响，可以找到环境影响最小的开采路径，确保资源的可持续开发。
-6. **故障预测与维护**：通过机器学习技术，可以对无人潜水器和自主水下航行器的运行数据进行分析，预测潜在故障，提前进行维护，从而减少设备故障率，延长使用寿命。
-7. **多智能体协作**：在深海探测任务中，往往需要多个无人潜水器和自主水下航行器协同工作。通过多智能体系统（MAS）技术，可以实现多个设备之间的高效协作，提高任务的整体效率和可靠性。
-8. **数据处理与分析**：深海探测过程中会产生大量数据，利用人工智能技术可以对这些数据进行高效处理和分析。例如，通过自然语言处理技术，可以将复杂的科学数据转化为易于理解的报告，为决策者提供支持。
-综上所述，人工智能在深海探测技术中的应用不仅能够提高无人潜水器和自主水下航行器的自主性和智能化水平，还能为环境监测与管理提供强大的技术支持，促进深海科学的发展和资源的可持续利用。</t>
+深海探测是一个多学科交叉的复杂议题，涉及生物学、物理学、化学、地理学和工程技术等多个领域。以下是对各个核心子问题的详细分析：
+#### 1. **深海生物多样性与生态系统功能**（生物学教授）
+深海生物多样性与生态系统功能是当前海洋生物学研究中的一个热点领域。深海环境极端，光照缺乏、压力巨大、温度低且变化小，物质和能量来源有限。然而，深海生物展现出了惊人的多样性和适应性。
+- **深海生物的种类与分布**：包括巨型乌贼、深海鱼类、管虫（如热液喷口周围的管虫）、深海海绵、深海软体动物（如深海蜗牛）、深海甲壳动物等。热液喷口周围的管虫通过与体内共生细菌的关系，利用化学合成作用获取能量。
+- **适应极端环境的机制**：深海生物通过多种机制适应高压、低温、黑暗和食物稀缺的环境，如改变细胞膜的脂肪酸组成、合成抗冻蛋白、生物发光和高效的能量利用效率。
+- **生物与环境的相互作用**：深海沉积物中的微生物通过矿化作用分解有机物，为深海生态系统提供营养物质。深海生物如管虫与硫细菌的共生关系促进了深海热液喷口生态系统的能量流动。
+- **生态系统功能**：深海生态系统在地球的碳循环中扮演着重要角色，通过食物链将表层海洋的有机碳转移到深海，减缓全球气候变化。深海生物的多样性对维持海洋生态系统的稳定性和恢复力至关重要。
+#### 2. **深海物理环境特征及其变化**（物理学教授）
+从物理学和地质学的角度，深海的物理环境特征及其变化对深海生态系统产生了深远影响。
+- **压力**：深海的压力随着深度增加而显著增加，对生物体结构和功能提出了特殊要求，如细胞结构的适应和特殊蛋白质的产生。
+- **温度**：深海温度普遍较低，但热液喷口周围的温度可以达到300℃以上，为生态系统提供了多样化的栖息地。
+- **洋流**：深海洋流负责输送热量、盐分和溶解的气体，影响深海的温度和化学组成，进而影响生物的分布和多样性。
+- **时间变化**：深海环境虽然相对稳定，但会受到全球气候变化的影响，如海水温度升高和海平面上升，以及人类活动如深海采矿和污染的潜在损害。
+#### 3. **深海化学环境及其对生态系统的影响**（化学教授）
+深海化学环境的研究涉及水体中化学成分的测定及其对生态系统的影响。
+- **微量元素的分布与循环**：铁等微量元素对初级生产力有重要影响，研究其在深海水体中的浓度、来源、分布和循环，有助于评估深海生态系统对全球气候的响应。
+- **溶解气体的化学特征**：氧气、二氧化碳和甲烷对深海生物和生态系统的健康至关重要，研究其溶解度和通量有助于理解深海酸化过程和甲烷的全球气候变化影响。
+- **深海热液喷口的化学特征**：热液喷口释放的高温液体中富含硫化物、重金属离子等，对周边环境的生物多样性和生态系统的形成具有决定性作用。
+- **化学因素对深海生物的影响**：深海生物对特定化学成分的依赖性高，如化能合成作用，通过研究这些化学过程，可以更深入地了解深海生物如何适应环境。
+#### 4. **深海资源的开发与环境保护**（地理学教授）
+从地理学和环境科学的角度，深海资源的开发与环境保护是一个复杂而多维的问题。
+- **相关技术**：包括矿物资源勘探（声纳、海底摄影、AUVs、ROVs）和生物资源勘探（环境DNA分析），以及深海矿物开采技术和生物资源采集技术。
+- **经济可行性**：深海资源的开发成本高昂，但随着技术进步和资源价格波动，某些资源的开发已经显示出经济吸引力。市场需求和政策法规对经济可行性有重要影响。
+- **环境影响评估**：深海生态系统极其脆弱，深海采矿可能破坏海底地形，影响生物栖息地，导致生物多样性的丧失。化学污染和噪音污染也是潜在的环境问题。
+- **保护措施**：包括环境管理规划、技术创新、国际合作和长期监测，确保深海资源的可持续开发。
+#### 5. **深海探测技术的发展现状与未来趋势**（人工智能教授）
+深海探测技术的发展极大地推动了对深海环境的认识，为资源开发和环境保护提供了技术支持。
+- **遥控潜水器（ROV）**：技术已相当成熟，广泛应用于多个领域，但面临电缆长度限制、耐压和耐腐蚀要求高等挑战。
+- **自主水下机器人（AUV）**：近年来发展迅速，无需物理连接，能够在预定路径上自主执行任务，未来将更加注重智能化和群体协作能力。
+- **深海探测的新机遇**：包括深海生物资源的探索、深海矿产资源的开发和环境保护与监测，技术进步将带来更多的机遇和挑战。
+综上所述，深海探测是一个多学科交叉的复杂议题，通过跨学科的合作研究，能够更全面地理解和面对深海的挑战与机遇。</t>
+  </si>
+  <si>
+    <t>深海生物的种类、分布及其与深海环境之间的相互作用是深海生物学研究的核心内容之一。深海环境的极端条件，包括极高的水压、极低的温度（通常接近冰点）、完全缺乏光照、以及有限的物质和能量来源，这些因素共同塑造了深海生物圈的独特性质。深海生物不仅具有极高的多样性，而且在适应这些极端环境方面展现出了令人惊叹的策略。
+### 深海生物的种类和分布
+1. **深海鱼类**：深海鱼类适应了深海的黑暗环境，许多种类具有发光器官（生物发光），用于吸引猎物或配偶，或是用于在捕食者面前造成混淆。如灯笼鱼、深海琵琶鱼等。
+2. **无脊椎动物**：深海无脊椎动物种类繁多，包括深海巨型乌贼、管虫、水母、海星、海参等。其中一些生物，如巨型乌贼，能够达到惊人的大小，而管虫则能生活在深海热液喷口附近，通过与硫细菌共生来获取能量。
+3. **微生物**：深海微生物是深海生态系统中不可或缺的一环，它们在物质循环中起着关键作用。深海热液喷口周围的极端环境中，微生物通过化学合成作用将无机物质转化为有机物质，支持着整个生态系统的能量流动。
+### 深海生物对极端环境的适应
+1. **生物发光**：在深海中，许多生物进化出了生物发光的能力，这是一种生产光的生物化学过程。这种能力被用于寻找食物、吸引配偶、迷惑捕食者或作为通讯手段。
+2. **高压适应**：深海生物的细胞结构和生物分子适应了高压环境，它们的细胞膜可能含有更多的不饱和脂肪酸，以保持在低温下的流动性；蛋白质结构也进行了调整，以维持在高压条件下的功能。
+3. **食物链的适应**：深海生物对于食物的获取和利用极为高效。许多生物进化出了特殊的身体结构，如长而灵敏的触须，以探测微弱的食物信号；或者发展出了食腐的习性，以适应深海中食物资源稀缺的状况。
+### 深海生态系统的作用
+1. **物质循环**：深海生物在深海生态系统的物质循环中扮演着至关重要的角色，特别是在碳循环中，它们通过食腐、分解有机物质等活动，促进了深海的碳固定和有机碳的再矿化。
+2. **能量流动**：深海生态系统中，能量的主要来源是来自上层海洋通过沉降的有机物质（“海洋雪”），以及深海热液喷口周围的化学合成作用。深海生物通过捕食、共生等关系，形成了复杂的食物网，支撑着深海生态系统的能量流动。
+3. **生物多样性**：深海是地球上最未被探索的区域之一，其生物多样性极高。深海生物的多样性和特有的适应机制，对于理解生命的极限和生物进化的方向具有重要意义。
+综上所述，深海生物的种类和分布广泛，它们通过一系列独特的适应策略，成功地在极端环境中生存和繁衍。这些生物不仅是深海生态系统的重要组成部分，而且对于全球物质循环和生态系统服务的维持也至关重要。随着深海探测技术的发展，我们对深海生物和他们与环境相互作用的了解正在不断深化，这将有助于我们更好地保护这一宝贵的自然遗产。</t>
+  </si>
+  <si>
+    <t>从生物学的角度深入分析深海生物的种类、分布及其与深海环境之间的相互作用，我们首先需要认识到深海环境的极端特性，这是深海生物能够生存的基础。深海环境的特点包括：几乎完全缺乏光照，导致无法进行光合作用；巨大的水压，对生物体的结构提出了特殊的要求；温度低且变化幅度小，一般维持在0-4°C之间；以及食物资源相对稀缺，大多数深海生物依赖于从上层海水沉降下来的有机物质。
+### 深海生物种类与分布
+深海生物展现出了极高的多样性，适应了这种极端环境的生物种类包括但不限于巨型乌贼、深海鱼类（如深海灯笼鱼、深海琵琶鱼）、管虫（如巨型管虫）、深海海绵、深海软体动物（如深海章鱼、深海蜗牛）和深海甲壳动物（如深海虾、深海蟹）等。这些生物在深海的分布受到海底地形、水温、盐度、营养盐的分布等因素的影响。例如，深海热液喷口周围形成了独特的生态系统，这里生活着依赖化学合成能量的生物群落，如管虫和热液喷口虾。
+### 深海生物的适应机制
+为了适应深海环境，这些生物进化出了一系列独特的适应机制。这些机制包括但不限于：
+- **细胞膜的调整**：为了适应高压，深海生物的细胞膜中脂肪酸的组成会有所不同，这有助于维持细胞膜的流动性和功能。
+- **抗冻蛋白的合成**：虽然深海温度通常不会达到冰点，但在某些极端低温环境中，一些生物能够合成抗冻蛋白，防止体内的水分结冰。
+- **生物发光**：深海生物利用生物发光进行捕食、交流和防御。这种发光是由生物体内的化学反应产生的，是深海生物中的一种普遍现象。
+- **高效的能量利用**：在食物资源稀缺的环境中，深海生物通过高效的能量利用机制，如低代谢率和高吸收效率，来维持生存。
+- **共生关系**：深海生物之间的共生关系也是它们生存的重要策略之一。例如，某些深海管虫与硫细菌共生，细菌通过化学合成作用将硫化物转化为能量，供给管虫使用。
+### 深海生物在生态系统中的作用
+深海生物在深海生态系统中扮演着不可或缺的角色。它们不仅是深海生态系统多样性的体现，还在生态系统服务方面发挥着重要作用。例如，深海热液喷口生态系统中的生物通过与微生物的共生关系，参与了深海的物质循环，尤其是硫循环和碳循环。深海生物通过食物链将表层海洋中的有机碳转移至深海，这一过程被称为“生物泵”，对地球的碳循环和减缓全球气候变化具有重要意义。此外，深海生物还是深海矿产资源勘查中生物指示种的重要来源，对深海生物多样性的保护也是保护深海生态系统健康和稳定的关键。
+深海生物的研究不仅增进了我们对生物适应极端环境机制的了解，也为探索生命的极限和可能性提供了宝贵的资料。随着深海探测技术的发展，相信未来将有更多的深海生物被发现，这将进一步丰富我们对深海生态系统复杂性的认识。</t>
+  </si>
+  <si>
+    <t>深海生物的种类繁多，从巨型乌贼到微小的浮游生物，构成了一个独特而复杂的生态系统。深海环境的极端性导致了这些生物具有许多独特的适应机制，使得它们能够在极端条件下生存和繁衍。
+1. **深海生物的种类及其分布**：
+   - **巨型乌贼**：深海中存在一些体型巨大的乌贼种类，如大王乌贼（Architeuthis dux）和巨型乌贼（Mesonychoteuthis hamiltoni），它们通常生活在数百至数千米的深海中，具有强大的捕食能力。
+   - **深海鱼类**：包括深海 anglers（如黑色恶魔鱼Melanocetus）、深海灯笼鱼（Myctophidae）等，这些鱼类通过生物发光吸引猎物或配偶，适应了深海的黑暗环境。
+   - **管虫**：如热液喷口周围的巨型管虫（Riftia pachyptila），它们通过与硫细菌的共生关系，利用化学合成作用获取能量，生活在热液喷口周围，形成了独特的生物群落。
+   - **深海海绵**：深海海绵种类繁多，是深海生物多样性的重要组成部分，它们通过过滤水中的有机物获得营养，有些种类还与其他微生物共生。
+   - **深海软体动物**：包括深海蜗牛、深海章鱼等，它们适应了深海的极端压力和低温，有的种类还具有特殊的色素来抵御深海的辐射。
+   - **深海甲壳动物**：如深海虾、深海蟹等，它们在深海食物链中占据重要位置，有的种类能够适应极端的温度条件，有的则具有特殊的防御机制。
+2. **深海生物的适应机制**：
+   - **细胞膜的适应**：深海生物的细胞膜含有特殊的脂肪酸成分，这些脂肪酸能够在低温和高压下保持细胞膜的流动性，从而保证生物体的正常生理功能。
+   - **抗冻蛋白的合成**：某些深海生物能够合成抗冻蛋白，这些蛋白能够在低温下防止细胞内水分子结冰，保护细胞不受冻害。
+   - **生物发光**：深海生物通过生物发光进行捕食、防御和交流，这种现象在深海鱼类、甲壳动物和某些软体动物中尤为常见。
+   - **高效的能量利用**：深海生物通过高效的代谢机制，在食物稀缺的环境中最大限度地利用有限的资源，如通过减少能量消耗、延长代谢周期等方式。
+3. **深海生物在生态系统中的作用**：
+   - **物质循环**：深海生物在地球的碳循环中扮演着重要角色。它们通过食物链将表层海洋的有机碳转移到深海，有助于减缓全球气候变化。深海中的有机碳储量极大，这些碳通过深海生物的代谢被固定在深海沉积物中。
+   - **生态位填补**：深海生物在深海生态系统中占据不同的生态位，形成了复杂的食物网。例如，深海热液喷口周围的生物群落，通过化学合成作用获取能量，为深海生态系统提供了稳定的能量来源。
+   - **生物多样性**：深海生物种类繁多，这一多样性不仅丰富了地球的生物种类，还为科学研究提供了宝贵的资源。深海生物的研究有助于我们更好地理解生命的起源和演化，以及极端环境下的生命适应机制。
+4. **深海生物与环境的相互作用**：
+   - **深海热液喷口**：热液喷口是一种深海特有的地质现象，从地壳深部喷出的高温液体富含矿物质和化学物质。这些化学物质为深海生物提供了能量来源，形成了独特的生物群落。热液喷口周围的生物通过与硫细菌等微生物的共生关系，利用化学合成作用获取能量，这在深海生态系统中具有重要意义。
+   - **深海沉积物**：深海沉积物中富含有机物，这些有机物来源于表层海洋的沉降物。深海生物通过分解这些有机物，参与了深海的物质循环。此外，深海沉积物还为许多深海生物提供了栖息地。
+   - **温度和压力变化**：深海环境中的温度和压力变化对深海生物的分布和适应性产生了重要影响。深海生物通过进化出适应这些环境的生理和形态特征，如耐压、耐低温等，从而在深海环境中生存下来。
+综上所述，深海生物的多样性及其适应机制为研究生命在极端环境下的生存策略提供了宝贵的资料，而深海生物在生态系统中的作用则揭示了深海环境对地球生态平衡的重要性。通过进一步的研究，我们不仅能够更深入地理解深海生态系统的运作机制，还能够探索深海生物在环境监测、生物技术等领域的潜在应用价值。</t>
+  </si>
+  <si>
+    <t>深海的物理环境极其独特，它不仅是地球上最后一个未被充分探索的边界之一，也是众多未解之谜的家园。从物理学和地质学的角度来看，深海环境的主要特征包括极端的压力、极端的温度变化、复杂的洋流系统等，这些条件不仅随时间变化，而且对深海生态系统产生了深远的影响。
+1. **压力**：深海环境下的压力随深度增加而显著增大。在海平面，标准大气压约为1atm（即101.325kPa），而每深入10米，压力大约增加1atm。例如，在深海的最深处——马里亚纳海沟，水深超过11000米，这里的压力可以达到1100atm。这种极端压力对深海生物的适应性提出了极高的要求，如体内的液体和组织需要能够承受这种高压，生物体内的蛋白质和细胞结构也必须适应这样的压力环境。
+2. **温度**：深海的温度普遍较低，大约在0℃至4℃之间。这种低温有助于保持水体的稳定性，减少了温度随深度变化的幅度。然而，在一些特定的地质构造如热液喷口处，温度可以急剧上升，达到300℃甚至更高。这些高温环境是深海生态系统中独特生物群落的家园，如巨型管虫和各种微生物，它们通过化学合成作用利用喷口释放的化学物质维持生命。
+3. **洋流**：海洋中的洋流不仅是热量的输送者，也是盐分、溶解气体和其他营养物质的主要运输者。深层洋流通常较慢，但它们对于调节全球气候和维持深海生态系统平衡至关重要。洋流的变化，无论是由于自然周期（如厄尔尼诺现象）还是人为因素（如全球变暖），都可能影响深海的温度和化学组成，进而影响生物的分布和多样性。例如，全球变暖导致的海水温度上升可能会改变某些深海物种的栖息地，影响它们的生存。
+4. **这些条件随时间的变化**：深海环境的物理条件并不是一成不变的。全球气候变化、海底地震、火山活动等自然事件，以及人类活动如深海钻探、污染等，都会对深海环境造成直接或间接的影响。例如，全球气候变化导致的海水酸化会影响深海珊瑚的生长，而海底地震则可能引发海啸，改变深海地形和生态系统。
+综上所述，深海的物理环境特征及其随时间的变化对深海生态系统的影响是多方面的，这些影响不仅体现了自然界的复杂性和多样性，也为科学家提供了研究极端条件下生命适应机制的重要窗口。通过跨学科的合作和研究，我们可以更好地理解深海环境的动态变化，为保护这一脆弱的生态系统提供科学依据。</t>
+  </si>
+  <si>
+    <t>深海化学环境的研究是深海探测中一个重要的组成部分，它涉及到深海水中化学成分的详细分析及这些成分如何影响深海生态系统。深海中的化学成分主要包括微量元素、溶解气体和特殊环境中的化学物质，它们共同构成了深海生物生存的化学背景，对深海生物和生态系统的健康与稳定起着至关重要的作用。
+### 微量元素
+深海中的微量元素，如铁（Fe）、锰（Mn）、铜（Cu）等，对于深海生物而言是不可或缺的营养元素。铁是光合作用和固氮作用的关键元素，对浮游植物的生长至关重要；锰参与了多种酶的活性中心，影响着生物体内的代谢过程；铜则是许多氧化还原酶的辅助因子。这些元素在深海中的浓度非常低，但即便是微量的存在，也足以对生物体产生显著的影响。微量元素的浓度变化可以调控藻类的生长周期，进而影响整个海洋生态系统的结构和功能。
+### 溶解气体
+深海中的溶解气体，包括氧气（O2）、二氧化碳（CO2）、甲烷（CH4）等，对深海生物的生理活动有着直接的影响。氧气是大多数深海生物新陈代谢的必需品，对维持生物体的生命活动至关重要。二氧化碳的浓度变化则与海洋酸化现象紧密相关，影响着海洋生物的钙化作用，尤其是对于珊瑚等钙化生物来说，高浓度的CO2会导致海水pH值下降，阻碍其壳体或骨骼的形成。甲烷是一种重要的温室气体，在深海环境中，甲烷水合物（俗称“可燃冰”）的稳定性对于全球气候变化具有潜在的影响。
+### 特殊环境的化学物质
+深海热液喷口是深海中一个非常特殊的环境，它们是地壳内部热液与海水混合后形成的高温、高压、富含矿物质的喷流。热液喷口中含有大量的硫化物、重金属离子（如锌、铅、镉等）以及甲烷等还原性气体。这些化学物质为深海热液喷口周边的生物群落提供了独特的化学能源，支持了一种不同于光合作用的新陈代谢方式——化能合成作用。例如，某些细菌能够利用硫化物中的化学能将二氧化碳还原成有机物质，这些细菌构成了热液喷口生态系统的基础生产者，支持着包括巨型管虫、盲虾等在内的复杂生物群落。
+### 化学因素对深海生物和生态系统的影响
+深海中的化学成分不仅提供了生物体生长所需的营养物质，还参与了生物体的代谢过程，影响着生物体的生理活动。例如，微量元素的缺乏可能导致生物体的生长受阻，而过量的重金属离子则可能对生物体造成毒害，影响其生存。此外，深海热液喷口等特殊环境中的化学物质为深海生物提供了独特的能源，使得这些生物能够在极端的环境下生存和繁衍，形成了深海中独特的生物多样性。这些化学因素共同作用，维持着深海生态系统的健康与稳定。
+综上所述，深海化学成分的研究对于理解深海生物的生存机制和深海生态系统的稳定性具有重要的意义。通过深入研究这些化学成分的来源、分布及其对生物体的影响，不仅可以增进我们对深海这一神秘领域的认识，还能够为保护深海生态系统、合理利用深海资源提供科学依据。</t>
+  </si>
+  <si>
+    <t>深海资源的勘探与开采是一个涉及多个学科交叉的复杂议题，它不仅关系到资源的有效利用，还关系到环境保护和可持续发展。从地理学和环境科学的角度来看，深海资源的开发需要全面考虑技术、经济和环境因素，以确保开发活动既具有经济效益，又对环境影响最小。
+### 深海资源的种类
+深海资源主要分为矿物资源和生物资源两大类。矿物资源主要包括多金属结核、热液硫化物、稀土元素等，这些资源具有重要的工业价值，如用于制造电池、电子设备等。生物资源则包括深海鱼类、深海海绵、深海微生物等，这些生物不仅具有潜在的药用价值，还是深海生态系统的重要组成部分。
+### 勘探与开采技术
+深海资源的勘探与开采技术是实现资源有效利用的关键。当前，深海勘探技术主要包括声纳探测、深海机器人、深潜器等，这些技术能够帮助科学家在极端环境下获取深海样本和数据。然而，深海开采技术仍处于初级阶段，面临着技术难度大、成本高昂等挑战。例如，多金属结核的采集需要专用的深海采矿船和收集设备，而热液硫化物的开采则需要解决高温高压环境下的材料腐蚀问题。
+### 经济可行性分析
+深海资源的开采不仅需要高昂的初期投资，还包括长期的运营成本。因此，经济可行性分析是决定是否进行深海资源开发的重要依据。需要考虑的因素包括资源的市场价格、开采成本、运输成本、市场风险等。例如，多金属结核的市场价格波动较大，如果市场供过于求，开采成本可能超过收益，导致项目无法持续。
+### 环境影响评估
+深海资源的开发对环境的影响是不可忽视的。深海生态系统是地球上最脆弱的生态系统之一，其生物多样性和生态功能对全球环境平衡具有重要意义。因此，环境影响评估是深海资源开发前必须进行的步骤。评估内容包括对海底地形的改变、生物栖息地的破坏、污染物的排放等。例如，深海采矿可能导致沉积物悬浮，影响深海生物的生存环境；热液硫化物的开采可能破坏热液喷口附近的生物群落。
+### 保护深海环境的措施
+为了在资源开发的同时保护深海环境，可以从以下几个方面着手：
+1. **建立严格的环境监管制度**：制定深海资源开发的环境标准和监管机制，确保开发活动符合环境保护要求。
+2. **采用环境友好型技术**：开发和使用减少环境影响的采矿技术，如低冲击采矿设备、环保型沉积物处理技术等。
+3. **实施生态恢复计划**：对于已经受到破坏的深海区域，实施生态恢复计划，通过人工干预恢复生态平衡。
+4. **加强国际合作**：深海属于国际公共区域，加强国际合作，共同制定和执行深海资源开发的国际规则，确保全球深海环境的可持续发展。
+综上所述，深海资源的勘探与开采是一项复杂的系统工程，需要在技术、经济和环境等多个方面进行综合考量。通过科学规划、技术创新和国际合作，可以在确保资源有效利用的同时，最大限度地减少对深海环境的破坏，实现深海资源开发与环境保护的双赢。</t>
+  </si>
+  <si>
+    <t>深海探测技术作为跨学科领域的尖端研究，其发展水平在过去数十年间取得了显著的进步。特别是遥控潜水器（ROV）和自主水下机器人（AUV）的开发和应用，极大地扩展了人类对深海环境的认知边界。然而，这一领域仍然面临着诸多挑战，未来的技术进步将为深海探测带来新的机遇。
+### 当前深海探测技术的发展水平
+1. **遥控潜水器（ROV）**：
+   - **功能与应用**：ROV是通过电缆连接到水面控制站的水下设备，操作人员可以在船上或岸上对其进行远程控制。ROV广泛应用于深海资源勘探、水下文物保护、海洋科学研究等领域。它们配备了高清摄像头、机械臂、传感器等设备，能够执行复杂的任务，如取样、拍摄、安装仪器等。
+   - **技术特点**：ROV的优势在于其高度的灵活性和操作精度，能够执行精细的操作。然而，其缺点是通信电缆限制了其活动范围和深度，且电缆的磨损和断裂风险较高。
+2. **自主水下机器人（AUV）**：
+   - **功能与应用**：AUV是能够在水下自主运行的机器人，无需实时的人工干预。它们通常用于海底地形测绘、海洋环境监测、海洋生物调查等任务。AUV可以长时间在水下工作，覆盖较大的探测范围。
+   - **技术特点**：AUV的最大优势是其自主性，能够减少对通信电缆的依赖，提高工作效率和安全性。然而，AUV在深海环境中的导航和定位技术仍需进一步完善，能源供应也是其面临的主要挑战之一。
+### 当前面临的挑战
+1. **深海通信**：
+   - 深海环境中的电磁波传播受限，无线电通信几乎无效。目前主要依赖声波通信，但声波通信速率低、延迟高，且易受海洋环境影响。开发高效、低延迟的深海通信技术是当务之急。
+2. **能源供应**：
+   - 深海探测设备的能源供应问题一直是技术瓶颈。ROV通常依赖水面平台的电力供应，而AUV则需要携带电池或使用其他能源。开发更高效、更持久的能源系统是提高深海探测设备工作时间和范围的关键。
+3. **耐压材料**：
+   - 深海环境的极端压力对设备的耐压性能提出了极高要求。目前使用的耐压材料虽然能够满足部分需求，但成本高、重量大，且在深海极端条件下的长期稳定性仍需验证。
+### 未来技术进步可能带来的新机遇
+1. **更智能的自主机器人**：
+   - 人工智能和机器学习技术的发展将使AUV更加智能。通过深度学习和强化学习，AUV可以更好地自主导航、识别目标和处理复杂环境。例如，AUV可以使用多传感器融合技术，实时分析海底地形和水文数据，提高探测的准确性和效率。
+2. **更高效的能源系统**：
+   - 新型电池技术（如固态电池、钠离子电池）和能源回收技术的发展将显著提高深海探测设备的能源供应能力。此外，利用海洋温差能、潮汐能等可再生能源为深海设备供电，也是未来的一个研究方向。
+3. **更可靠的通信技术**：
+   - 随着量子通信和新型声波通信技术的发展，深海通信将变得更加高效和可靠。量子通信可以实现无延迟、高安全性的通信，而新型声波通信技术可以提高通信速率和稳定性。这些技术的突破将显著提升深海探测的实时性和数据传输能力。
+4. **新材料的应用**：
+   - 研发更轻、更强、更耐压的新型材料将显著改善深海探测设备的性能。例如，纳米材料和复合材料在耐压、耐腐蚀性能方面的优势，将为深海设备的设计和制造提供新的解决方案。
+### 结论
+深海探测技术的发展已经取得了显著成就，但仍然面临许多挑战。未来的技术进步，特别是在人工智能、能源系统、通信技术和新材料领域的突破，将为深海探测带来新的机遇。这些技术的融合和应用将极大地扩展人类对深海环境的认知，推动深海资源的开发和利用，为科学研究和社会发展提供重要支持。</t>
   </si>
   <si>
     <t>### 深海探测的多学科综合分析
-#### 1. 从数学角度建立深海探测的数学模型
-从数学的角度，建立深海探测的数学模型，旨在预测深海地形、生物分布和化学环境的变化，需要综合运用微积分、概率论、图论与优化等多种数学工具。具体步骤和方法包括：
-- **数据收集与预处理**：通过声纳、遥感、深海机器人等技术收集深海地形、生物分布、化学成分等数据，并进行数据清洗和预处理。
-- **地形建模**：利用微分几何方法描述海底地形的曲率，通过多项式回归或样条插值方法拟合地形数据。
-- **生物分布建模**：使用概率分布函数预测特定物种的分布密度，利用逻辑回归或随机森林等方法构建生态位模型。
-- **化学环境变化建模**：利用化学动力学方程描述化学物质的生成、消耗过程，建立偏微分方程模型预测化学物质的时空分布。
-- **多变量分析与系统模拟**：构建系统动力学模型，综合考虑地形、生物、化学等多方面因素的相互作用，预测环境变化的长期趋势。
-- **模型验证与更新**：利用新收集的数据对模型进行验证，评估模型的预测精度，并不断调整和优化模型参数。
-- **决策支持与应用**：将模型结果转化为决策支持工具，为深海探测、资源开发、环境保护等提供科学依据。
-#### 2. 从物理学角度利用声纳技术和遥感技术进行深海探测
-从物理学的角度，声纳技术和遥感技术在深海探测中扮演着重要角色，特别是在地形测绘和生物分布监测方面。具体应用包括：
-- **声纳技术**：
-  - **主动声纳**：通过发射声波信号并接收从海底反射回来的声波信号，提供高分辨率的海底地形图像。
-  - **被动声纳**：通过监听海洋生物或海洋环境中自然产生的声波，用于生物分布监测。
-- **多波束声纳技术**：能够同时发射多个声波束，覆盖较大的海底区域，生成三维海底地形模型。
-- **遥感技术**：利用卫星遥感监测海面特征，如海水温度、盐度、海流等，为理解深海生态系统和气候变化提供重要信息。
-#### 3. 从生物学角度研究深海生态系统的生物多样性和生态适应机制
-从生物学的角度，研究深海生态系统的生物多样性和生态适应机制，需要综合运用多种研究方法和技术手段。具体研究方向包括：
-- **生物多样性的调查与记录**：利用深海探测器、潜水器等设备进行生物采样，建立深海生物多样性的数据库。
-- **生态适应性的研究**：通过基因组学、转录组学、蛋白质组学等技术，揭示深海生物特有的基因表达模式和代谢网络。
-- **生态系统功能与结构的解析**：构建生物网络模型，研究生物间的捕食关系、共生关系等，了解生态系统如何维持其结构和功能。
-- **人类活动影响的评估**：评估深海资源开发对生物多样性的影响，识别受威胁的物种和区域。
-- **保护措施的科学制定**：提出针对性的深海保护措施，如建立深海保护区、限制特定区域的资源开发活动等。
-#### 4. 从化学角度研究深海化学环境及其对生物的影响
-从化学的角度，研究深海化学环境及其对生物的影响，以及人类活动对这一环境的潜在影响，需要综合运用各种化学方法和技术。具体研究方向包括：
-- **化学物质的定性和定量分析**：利用现代分析技术（如HPLC、GC-MS、ICP-MS）对深海水样、沉积物样、生物样本中的化学物质进行分析。
-- **化学物质的迁移转化机制**：研究重金属和有机污染物在深海环境中的吸附、解吸和生物累积效应。
-- **深海生物的生理和代谢过程**：结合生物化学、分子生物学等知识，探讨深海生物体内的酶活性、蛋白质结构与功能的变化，以及基因表达的调控机制。
-- **人类活动对深海环境的影响**：评估海洋污染、深海采矿、石油泄漏等对深海化学环境的影响，为制定环境保护措施提供科学依据。
-#### 5. 从地理学角度进行深海地形与地质结构的探测与分析
-从地理学的角度，进行深海地形与地质结构的探测与分析，以及深海资源开发的环境影响评估，需要运用现代技术手段和多学科知识。具体研究方向包括：
-- **声波探测技术**：利用多波束测深系统（MBES）或单波束测深仪（SBES）进行高精度的海底地形探测。
-- **重力和磁力探测**：通过探测海底重力场和磁场的变化，了解海底下的地质结构。
-- **海底沉积物采样**：通过海底钻探或沉积物取样，获取海底物质的成分信息。
-- **环境基线调查**：在深海资源开发前期，进行详细的环境基线调查，建立区域内的环境状况本底数据。
-- **环境影响预测模型**：基于已有的深海环境数据和资源开发计划，建立环境影响预测模型。
-- **环境监测与管理**：在资源开发过程中，持续进行环境监测，及时发现并处理可能的环境问题。
-#### 6. 从人工智能角度发展和应用深海探测技术
-从人工智能的角度，发展和应用深海探测技术，特别是在无人潜水器（ROV）、自主水下航行器（AUV）、环境监测与管理等方面的应用，可以分为以下几个方面：
-- **智能导航与路径规划**：通过集成深度学习和强化学习技术，实现无人潜水器和自主水下航行器的自主导航和路径规划。
-- **环境感知与数据融合**：利用传感器网络和计算机视觉技术，实时采集和分析海底地形、地质结构、生物分布等多模态数据。
-- **自主决策与任务管理**：通过决策树、遗传算法、模糊逻辑等技术，实现无人潜水器和自主水下航行器的自主决策。
-- **环境监测与管理**：利用智能传感器网络和大数据分析技术，实现对深海环境的长期、连续监测。
-- **资源开发与保护**：通过模拟不同开采方案对生态系统的影响，优化开采方案，确保资源的可持续开发。
-- **故障预测与维护**：通过机器学习技术，预测潜在故障，提前进行维护，减少设备故障率。
-- **多智能体协作**：通过多智能体系统（MAS）技术，实现多个设备之间的高效协作。
-- **数据处理与分析**：利用人工智能技术对大量数据进行高效处理和分析，支持决策者的工作。
-综上所述，深海探测是一个多学科交叉的复杂领域，涉及数学、物理学、生物学、化学、地理学和人工智能等多个学科。通过综合分析深海地形与地质结构、深海生态系统与生物多样性、深海化学环境及其对生物的影响、深海资源开发的环境影响评估以及深海探测技术的发展与应用，我们可以更全面地理解深海环境，评估人类活动的影响，并提出科学的保护措施和技术手段，促进深海科学的发展和资源的可持续利用。</t>
-  </si>
-  <si>
-    <t>**项目申请书**
+深海探测是一个多学科交叉的复杂议题，涉及生物学、物理学、化学、地理学和工程技术等多个领域。以下是对各个核心子问题的详细分析：
+#### 1. **深海生物多样性与生态系统功能**（生物学教授）
+深海生物多样性与生态系统功能是当前海洋生物学研究中的一个热点领域。深海环境极端，光照缺乏、压力巨大、温度低且变化小，物质和能量来源有限。然而，深海生物展现出了惊人的多样性和适应性。
+- **深海生物的种类与分布**：包括巨型乌贼、深海鱼类、管虫（如热液喷口周围的管虫）、深海海绵、深海软体动物（如深海蜗牛）、深海甲壳动物等。热液喷口周围的管虫通过与体内共生细菌的关系，利用化学合成作用获取能量。
+- **适应极端环境的机制**：深海生物通过多种机制适应高压、低温、黑暗和食物稀缺的环境，如改变细胞膜的脂肪酸组成、合成抗冻蛋白、生物发光和高效的能量利用效率。
+- **生物与环境的相互作用**：深海沉积物中的微生物通过矿化作用分解有机物，为深海生态系统提供营养物质。深海生物如管虫与硫细菌的共生关系促进了深海热液喷口生态系统的能量流动。
+- **生态系统功能**：深海生态系统在地球的碳循环中扮演着重要角色，通过食物链将表层海洋的有机碳转移到深海，减缓全球气候变化。深海生物的多样性对维持海洋生态系统的稳定性和恢复力至关重要。
+#### 2. **深海物理环境特征及其变化**（物理学教授）
+从物理学和地质学的角度，深海的物理环境特征及其变化对深海生态系统产生了深远影响。
+- **压力**：深海的压力随着深度增加而显著增加，对生物体结构和功能提出了特殊要求，如细胞结构的适应和特殊蛋白质的产生。
+- **温度**：深海温度普遍较低，但热液喷口周围的温度可以达到300℃以上，为生态系统提供了多样化的栖息地。
+- **洋流**：深海洋流负责输送热量、盐分和溶解的气体，影响深海的温度和化学组成，进而影响生物的分布和多样性。
+- **时间变化**：深海环境虽然相对稳定，但会受到全球气候变化的影响，如海水温度升高和海平面上升，以及人类活动如深海采矿和污染的潜在损害。
+#### 3. **深海化学环境及其对生态系统的影响**（化学教授）
+深海化学环境的研究涉及水体中化学成分的测定及其对生态系统的影响。
+- **微量元素的分布与循环**：铁等微量元素对初级生产力有重要影响，研究其在深海水体中的浓度、来源、分布和循环，有助于评估深海生态系统对全球气候的响应。
+- **溶解气体的化学特征**：氧气、二氧化碳和甲烷对深海生物和生态系统的健康至关重要，研究其溶解度和通量有助于理解深海酸化过程和甲烷的全球气候变化影响。
+- **深海热液喷口的化学特征**：热液喷口释放的高温液体中富含硫化物、重金属离子等，对周边环境的生物多样性和生态系统的形成具有决定性作用。
+- **化学因素对深海生物的影响**：深海生物对特定化学成分的依赖性高，如化能合成作用，通过研究这些化学过程，可以更深入地了解深海生物如何适应环境。
+#### 4. **深海资源的开发与环境保护**（地理学教授）
+从地理学和环境科学的角度，深海资源的开发与环境保护是一个复杂而多维的问题。
+- **相关技术**：包括矿物资源勘探（声纳、海底摄影、AUVs、ROVs）和生物资源勘探（环境DNA分析），以及深海矿物开采技术和生物资源采集技术。
+- **经济可行性**：深海资源的开发成本高昂，但随着技术进步和资源价格波动，某些资源的开发已经显示出经济吸引力。市场需求和政策法规对经济可行性有重要影响。
+- **环境影响评估**：深海生态系统极其脆弱，深海采矿可能破坏海底地形，影响生物栖息地，导致生物多样性的丧失。化学污染和噪音污染也是潜在的环境问题。
+- **保护措施**：包括环境管理规划、技术创新、国际合作和长期监测，确保深海资源的可持续开发。
+#### 5. **深海探测技术的发展现状与未来趋势**（人工智能教授）
+深海探测技术的发展极大地推动了对深海环境的认识，为资源开发和环境保护提供了技术支持。
+- **遥控潜水器（ROV）**：技术已相当成熟，广泛应用于多个领域，但面临电缆长度限制、耐压和耐腐蚀要求高等挑战。
+- **自主水下机器人（AUV）**：近年来发展迅速，无需物理连接，能够在预定路径上自主执行任务，未来将更加注重智能化和群体协作能力。
+- **深海探测的新机遇**：包括深海生物资源的探索、深海矿产资源的开发和环境保护与监测，技术进步将带来更多的机遇和挑战。
+### 结论
+综上所述，深海探测是一个多学科交叉的复杂议题，通过跨学科的合作研究，能够更全面地理解和面对深海的挑战与机遇。生物学、物理学、化学、地理学和工程技术的综合应用，不仅增进了我们对深海环境和生物多样性的认识，也为深海资源的可持续开发和环境保护提供了科学依据。随着技术的不断进步，未来深海探测将带来更多的新机遇，推动科学研究和社会发展。</t>
+  </si>
+  <si>
+    <t>**深海探测与生态系统研究项目申请书**
 **摘要**
-随着人类对地球资源需求的不断增长，深海作为地球上最后一片未被充分探索的领域，其拥有丰富的矿产资源、独特的生态系统及重要的科学研究价值。本项目旨在通过多学科交叉合作，利用先进的声纳、遥感技术、无人潜水器等手段，对深海地形、地质结构、生态系统、化学环境及资源开发的环境影响进行全面探测与评估。项目将提出一套科学合理的深海探测技术路线，为深海资源的可持续开发与环境保护提供理论依据和技术支持。
+本项目旨在通过跨学科方法，深入研究深海环境的物理、化学、生物学特征及其相互作用，探索深海生物多样性和生态系统功能，评估深海资源开发的经济可行性和环境影响，并开发新型深海探测技术，以应对深海环境的挑战。项目将结合人工智能技术，实现对深海环境的高效、准确探测和分析。
 **研究背景和意义**
-深海环境极端且复杂，其地形、地质结构、生态系统和化学环境具有独特的特点，对于理解地球的自然历史、生物多样性、资源分布及环境变化等方面具有重要意义。随着技术的发展，人类对深海的探索能力不断增强，但同时，深海资源的开发也带来了对环境的潜在威胁。因此，开展深海探测与评估，不仅是科学研究的需要，也是确保深海资源可持续利用和生态保护的必然要求。
+深海是地球上最大的生物圈，拥有独特的生态系统和宝贵的资源。然而，深海环境的极端条件（如高压、低温、黑暗）以及技术限制，使得深海的探测和研究面临巨大挑战。本项目将通过整合生物学、物理学、化学、地理学和工程技术的最新进展，解决深海探测和研究中的关键科学和技术问题，为深海资源的可持续开发和环境保护提供科学依据和技术支持。
 **研究内容**
-1. 深海地形与地质结构的探测与分析
-2. 深海生态系统与生物多样性的调查
-3. 深海化学环境及其对生物的影响研究
-4. 深海资源开发的环境影响评估
-5. 深海探测技术的发展与应用
+1. **深海生物多样性与生态系统功能的研究**
+   - 调查深海生物的种类与分布，分析适应极端环境的机制。
+   - 研究深海生物与环境的相互作用，评估生态系统功能。
+2. **深海物理环境特征及其变化的分析**
+   - 研究深海压力、温度、洋流等物理环境特征及其随时间的变化规律。
+3. **深海化学环境及其对生态系统的影响**
+   - 分析深海微量元素的分布与循环，溶解气体的化学特征。
+   - 研究深海热液喷口的化学特征及其对生态系统的影响。
+4. **深海资源的开发与环境保护**
+   - 评估深海资源开发的技术和经济可行性。
+   - 进行深海资源开发的环境影响评估，提出保护措施。
+5. **深海探测技术的发展**
+   - 研发先进的遥控潜水器（ROV）和自主水下机器人（AUV）。
+   - 探索深海探测的新机遇和技术路线。
 **拟解决的科学问题**
-1. 深海地形与地质结构的精确度如何提高，以及这些结构对海洋环境的具体影响是什么？
-2. 深海生物在极端环境下的适应机制是什么，以及人类活动对其生态系统的潜在影响？
-3. 深海化学物质的组成及其对生物体生理行为的影响机制是什么？
-4. 深海矿产资源开发如何在不损害环境的前提下进行？
-5. 新型深海探测技术如何提高数据收集的效率和准确性，同时减少对环境的干扰？
+1. 深海生物多样性的分布规律及其适应极端环境的机制。
+2. 深海物理环境特征及其变化规律。
+3. 深海化学环境对生态系统的影响机制。
+4. 深海资源开发的经济可行性和环境影响评估。
+5. 高效、准确的深海探测技术的研发与应用。
 **拟提出的技术路线**
-为了有效解决上述科学问题，本项目将采取以下技术路线：
-1. **深海地形与地质结构的探测与分析**：利用多波束声纳系统和高分辨率遥感技术，进行深海地形的三维建模。结合地震反射剖面技术，研究深海地质结构的内部构造，评估其对海洋环境的影响。
-2. **深海生态系统与生物多样性的调查**：采用远程遥控潜水器（ROV）和自动水下航行器（AUV）搭载高清摄像设备，对深海生物进行非破坏性采样。通过生物信息学分析，研究深海生物的基因多样性，探索其适应极端环境的机制。
-3. **深海化学环境及其对生物的影响**：使用环境友好型采样器收集深海水样和沉积物样本，分析其中的化学成分。结合实验室模拟实验，研究特定化学物质对深海生物生理行为的影响。
-4. **深海资源开发的环境影响评估**：建立深海环境影响模型，评估矿产资源开发对深海生态系统、水体质量等的潜在影响。开发环境监测系统，实时监控开发活动对环境的影响，提出减少负面影响的技术措施。
-5. **深海探测技术的发展与应用**：研发适用于深海环境的无人探测设备，提高其在极端条件下的可靠性和作业能力。开发智能控制系统，实现探测设备的自主导航与作业。同时，研究数据处理与分析的新方法，提高数据的利用效率。
+1. **深海生物多样性与生态系统功能的研究**
+   - **数据采集**：利用ROV和AUV搭载的高清摄像头和采样设备，采集深海生物的影像和样本。
+   - **数据分析**：采用机器学习和图像识别技术，对采集的数据进行自动分类和分析，识别深海生物的种类和分布。
+   - **环境适应机制研究**：通过基因组学和蛋白质组学技术，研究深海生物适应极端环境的分子机制。
+   - **生态系统功能评估**：结合生态模型，评估深海生物与环境的相互作用及其对生态系统功能的影响。
+2. **深海物理环境特征及其变化的分析**
+   - **数据采集**：使用ROV和AUV搭载的传感器，实时监测深海的压力、温度和洋流数据。
+   - **数据处理**：采用数据融合技术，整合多源数据，提高数据的准确性和可靠性。
+   - **变化规律分析**：利用时间序列分析和统计模型，研究深海物理环境特征的长期变化规律。
+3. **深海化学环境及其对生态系统的影响**
+   - **数据采集**：利用ROV和AUV搭载的化学传感器，采集深海微量元素、溶解气体和热液喷口的化学数据。
+   - **数据处理**：采用化学计量学方法，分析数据的化学成分和浓度。
+   - **影响机制研究**：结合生物实验和生态模型，研究化学因素对深海生物的影响机制。
+4. **深海资源的开发与环境保护**
+   - **技术评估**：研究深海资源开发的技术手段，评估其可行性和经济性。
+   - **环境影响评估**：通过数值模拟和环境监测，评估深海资源开发对环境的影响。
+   - **保护措施**：提出具体的环境保护措施，确保深海资源的可持续开发。
+5. **深海探测技术的发展**
+   - **ROV和AUV的研发**：设计和开发具有更高自主性和适应性的ROV和AUV，提高深海探测的效率和安全性。
+   - **新型传感器的集成**：集成多类型的传感器，实现对深海环境的多参数、高精度监测。
+   - **数据处理与分析**：开发高效的数据处理和分析平台，支持大规模数据的实时处理和智能分析。
 **预期成果**
-1. 建立一套完善的深海地形与地质结构数据库，为深海资源的开发提供基础数据支持。
-2. 揭示深海生态系统中生物多样性形成与维持的机制，提出保护深海生物多样性的策略。
-3. 理解深海化学物质对生物体的影响机制，为深海环境保护提供科学依据。
-4. 评估深海矿产资源开发的环境风险，提出减少环境影响的技术方案。
-5. 开发出新一代深海探测技术与设备，提升我国在深海探测领域的国际竞争力。
-通过本项目的实施，不仅能推动深海科学的发展，还能为深海资源的合理开发与环境保护提供重要的技术支持，具有重要的科学价值与社会意义。</t>
-  </si>
-  <si>
-    <t>**项目申请书**
-**摘要**
-随着人类对地球资源需求的不断增长，深海作为地球上最后一片未被充分探索的领域，其拥有丰富的矿产资源、独特的生态系统及重要的科学研究价值。本项目旨在通过多学科交叉合作，利用先进的声纳、遥感技术、无人潜水器等手段，对深海地形、地质结构、生态系统、化学环境及资源开发的环境影响进行全面探测与评估。项目将提出一套科学合理的深海探测技术路线，为深海资源的可持续开发与环境保护提供理论依据和技术支持。
-**研究背景和意义**
-深海环境极端且复杂，其地形、地质结构、生态系统和化学环境具有独特的特点，对于理解地球的自然历史、生物多样性、资源分布及环境变化等方面具有重要意义。随着技术的发展，人类对深海的探索能力不断增强，但同时，深海资源的开发也带来了对环境的潜在威胁。因此，开展深海探测与评估，不仅是科学研究的需要，也是确保深海资源可持续利用和生态保护的必然要求。
-**研究内容**
-1. **深海地形与地质结构的探测与分析**
-2. **深海生态系统与生物多样性的调查**
-3. **深海化学环境及其对生物的影响研究**
-4. **深海资源开发的环境影响评估**
-5. **深海探测技术的发展与应用**
-**拟解决的科学问题**
-1. 深海地形与地质结构的精确度如何提高，以及这些结构对海洋环境的具体影响是什么？
-2. 深海生物在极端环境下的适应机制是什么，以及人类活动对其生态系统的潜在影响？
-3. 深海化学物质的组成及其对生物体生理行为的影响机制是什么？
-4. 深海矿产资源开发如何在不损害环境的前提下进行？
-5. 新型深海探测技术如何提高数据收集的效率和准确性，同时减少对环境的干扰？
-**拟提出的技术路线**
-为了有效解决上述科学问题，本项目将采取以下技术路线：
-1. **深海地形与地质结构的探测与分析**：
-   - **技术手段**：利用多波束声纳系统和高分辨率遥感技术，进行深海地形的三维建模。结合地震反射剖面技术，研究深海地质结构的内部构造。
-   - **具体步骤**：
-     1. 使用多波束声纳系统进行海底地形的高分辨率测绘。
-     2. 结合地震反射剖面技术，获取深海地质结构的内部信息。
-     3. 利用计算机建模技术，生成三维海底地形图。
-     4. 评估地形和地质结构对海洋环境的影响，如洋流路径、沉积物运输等。
-2. **深海生态系统与生物多样性的调查**：
-   - **技术手段**：采用远程遥控潜水器（ROV）和自动水下航行器（AUV）搭载高清摄像设备，对深海生物进行非破坏性采样。通过生物信息学分析，研究深海生物的基因多样性。
-   - **具体步骤**：
-     1. 使用ROV和AUV进行深海生物的高清拍摄和采样。
-     2. 通过生物信息学分析，研究深海生物的基因多样性和生态适应机制。
-     3. 建立深海生物多样性的数据库，评估人类活动对深海生态系统的影响。
-     4. 提出保护深海生物多样性的策略。
-3. **深海化学环境及其对生物的影响**：
-   - **技术手段**：使用环境友好型采样器收集深海水样和沉积物样本，分析其中的化学成分。结合实验室模拟实验，研究特定化学物质对深海生物生理行为的影响。
-   - **具体步骤**：
-     1. 使用环境友好型采样器收集深海水样和沉积物样本。
-     2. 利用现代分析技术（如HPLC、GC-MS、ICP-MS）分析样本中的化学成分。
-     3. 在实验室中模拟深海环境，研究化学物质对深海生物的影响。
-     4. 评估深海矿产资源开发对化学环境的潜在影响，提出减少污染的技术措施。
-4. **深海资源开发的环境影响评估**：
-   - **技术手段**：建立深海环境影响模型，评估矿产资源开发对深海生态系统、水体质量等的潜在影响。开发环境监测系统，实时监控开发活动对环境的影响。
-   - **具体步骤**：
-     1. 建立深海环境影响模型，评估矿产资源开发对生态系统和水体质量的影响。
-     2. 开发环境监测系统，实时监控开发活动对环境的影响。
-     3. 提出减少负面影响的技术方案，如减少沉积物扰动、避免有毒物质排放等。
-     4. 制定生态系统恢复计划，促进生态系统的自我恢复能力。
-5. **深海探测技术的发展与应用**：
-   - **技术手段**：研发适用于深海环境的无人探测设备，提高其在极端条件下的可靠性和作业能力。开发智能控制系统，实现探测设备的自主导航与作业。研究数据处理与分析的新方法，提高数据的利用效率。
-   - **具体步骤**：
-     1. 研发适用于深海环境的无人探测设备，提高其在极端条件下的可靠性和作业能力。
-     2. 开发智能控制系统，实现探测设备的自主导航与作业。
-     3. 研究数据处理与分析的新方法，提高数据的利用效率。
-     4. 建立长期的环境监测体系，定期对水体质量、生物多样性等进行监测。
-**预期成果**
-1. **建立一套完善的深海地形与地质结构数据库**，为深海资源的开发提供基础数据支持。
-2. **揭示深海生态系统中生物多样性形成与维持的机制**，提出保护深海生物多样性的策略。
-3. **理解深海化学物质对生物体的影响机制**，为深海环境保护提供科学依据。
-4. **评估深海矿产资源开发的环境风险**，提出减少环境影响的技术方案。
-5. **开发出新一代深海探测技术与设备**，提升我国在深海探测领域的国际竞争力。
-通过本项目的实施，不仅能推动深海科学的发展，还能为深海资源的合理开发与环境保护提供重要的技术支持，具有重要的科学价值与社会意义。</t>
+1. **科学成果**：发表高水平的学术论文，揭示深海生物多样性、物理环境特征、化学环境影响的科学规律。
+2. **技术成果**：开发先进的深海探测技术，提高深海环境的探测效率和数据质量。
+3. **应用成果**：提出深海资源开发的经济可行性和环境保护措施，为深海资源的可持续开发提供科学依据和技术支持。
+通过本项目的研究，将为深海科学的发展和深海资源的可持续利用做出重要贡献。</t>
   </si>
 </sst>
 </file>
@@ -803,7 +781,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -831,10 +809,10 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -845,10 +823,10 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -856,13 +834,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -870,13 +848,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -884,13 +862,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -901,10 +879,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -912,13 +890,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -929,10 +907,10 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -940,13 +918,13 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -954,13 +932,13 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -971,10 +949,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -985,10 +963,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -996,13 +974,13 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1010,13 +988,13 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1024,27 +1002,27 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1052,13 +1030,27 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
         <v>9</v>
       </c>
-      <c r="C18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" t="s">
-        <v>47</v>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
